--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>108900</v>
+        <v>74800</v>
       </c>
       <c r="E8" s="3">
-        <v>119100</v>
+        <v>83900</v>
       </c>
       <c r="F8" s="3">
-        <v>130600</v>
+        <v>106200</v>
       </c>
       <c r="G8" s="3">
-        <v>146600</v>
+        <v>116100</v>
       </c>
       <c r="H8" s="3">
-        <v>160200</v>
+        <v>127400</v>
       </c>
       <c r="I8" s="3">
+        <v>143000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K8" s="3">
         <v>154400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>153100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>159700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>139300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>115800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50500</v>
+        <v>41300</v>
       </c>
       <c r="E9" s="3">
-        <v>57500</v>
+        <v>43700</v>
       </c>
       <c r="F9" s="3">
-        <v>60100</v>
+        <v>49300</v>
       </c>
       <c r="G9" s="3">
-        <v>67400</v>
+        <v>56100</v>
       </c>
       <c r="H9" s="3">
-        <v>74800</v>
+        <v>58600</v>
       </c>
       <c r="I9" s="3">
+        <v>65800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K9" s="3">
         <v>69500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>67000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>69700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>60000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>45900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>58400</v>
+        <v>33500</v>
       </c>
       <c r="E10" s="3">
-        <v>61600</v>
+        <v>40200</v>
       </c>
       <c r="F10" s="3">
-        <v>70500</v>
+        <v>56900</v>
       </c>
       <c r="G10" s="3">
-        <v>79200</v>
+        <v>60100</v>
       </c>
       <c r="H10" s="3">
-        <v>85300</v>
+        <v>68800</v>
       </c>
       <c r="I10" s="3">
+        <v>77200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K10" s="3">
         <v>85000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>86000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>90100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>79300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>69900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,25 +963,31 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74600</v>
+        <v>86300</v>
       </c>
       <c r="E17" s="3">
-        <v>88000</v>
+        <v>72200</v>
       </c>
       <c r="F17" s="3">
-        <v>104600</v>
+        <v>72700</v>
       </c>
       <c r="G17" s="3">
-        <v>110300</v>
+        <v>85800</v>
       </c>
       <c r="H17" s="3">
-        <v>114600</v>
+        <v>102000</v>
       </c>
       <c r="I17" s="3">
+        <v>107600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>111800</v>
+      </c>
+      <c r="K17" s="3">
         <v>109800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>113500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>121900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>109900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>87900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>34300</v>
+        <v>-11500</v>
       </c>
       <c r="E18" s="3">
-        <v>31100</v>
+        <v>11800</v>
       </c>
       <c r="F18" s="3">
-        <v>26000</v>
+        <v>33500</v>
       </c>
       <c r="G18" s="3">
-        <v>36300</v>
+        <v>30300</v>
       </c>
       <c r="H18" s="3">
-        <v>45500</v>
+        <v>25300</v>
       </c>
       <c r="I18" s="3">
+        <v>35400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K18" s="3">
         <v>44700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>39600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>37800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>29400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>27900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1216,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1170,25 +1243,31 @@
         <v>8</v>
       </c>
       <c r="I21" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>45600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>39400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>28600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34300</v>
+        <v>-11500</v>
       </c>
       <c r="E23" s="3">
-        <v>31100</v>
+        <v>11800</v>
       </c>
       <c r="F23" s="3">
-        <v>26000</v>
+        <v>33500</v>
       </c>
       <c r="G23" s="3">
-        <v>36300</v>
+        <v>30300</v>
       </c>
       <c r="H23" s="3">
-        <v>45500</v>
+        <v>25400</v>
       </c>
       <c r="I23" s="3">
+        <v>35400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K23" s="3">
         <v>44700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>39600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>29400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>27900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8900</v>
+        <v>-2300</v>
       </c>
       <c r="E24" s="3">
-        <v>8000</v>
+        <v>3200</v>
       </c>
       <c r="F24" s="3">
-        <v>6500</v>
+        <v>8700</v>
       </c>
       <c r="G24" s="3">
-        <v>9300</v>
+        <v>7800</v>
       </c>
       <c r="H24" s="3">
-        <v>11800</v>
+        <v>6400</v>
       </c>
       <c r="I24" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>11700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>8500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25400</v>
+        <v>-9200</v>
       </c>
       <c r="E26" s="3">
-        <v>23100</v>
+        <v>8500</v>
       </c>
       <c r="F26" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>34600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>26100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O26" s="3">
         <v>19400</v>
       </c>
-      <c r="G26" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>28200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>26100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>17000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>19400</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>25400</v>
+        <v>-9200</v>
       </c>
       <c r="E27" s="3">
-        <v>23100</v>
+        <v>8500</v>
       </c>
       <c r="F27" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>34600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>26100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O27" s="3">
         <v>19400</v>
       </c>
-      <c r="G27" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>28200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>26100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>17000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>19400</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,46 +1744,58 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>25400</v>
+        <v>-9200</v>
       </c>
       <c r="E33" s="3">
-        <v>23100</v>
+        <v>8500</v>
       </c>
       <c r="F33" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>34600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>26100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O33" s="3">
         <v>19400</v>
       </c>
-      <c r="G33" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>28200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>26100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>17000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>19400</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>25400</v>
+        <v>-9200</v>
       </c>
       <c r="E35" s="3">
-        <v>23100</v>
+        <v>8500</v>
       </c>
       <c r="F35" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>34600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>26100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O35" s="3">
         <v>19400</v>
       </c>
-      <c r="G35" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>28200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>26100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>17000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>19400</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,35 +1965,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220500</v>
+        <v>232600</v>
       </c>
       <c r="E41" s="3">
-        <v>272300</v>
+        <v>238700</v>
       </c>
       <c r="F41" s="3">
-        <v>281300</v>
+        <v>215100</v>
       </c>
       <c r="G41" s="3">
-        <v>453600</v>
+        <v>265600</v>
       </c>
       <c r="H41" s="3">
-        <v>245600</v>
+        <v>274400</v>
       </c>
       <c r="I41" s="3">
+        <v>442500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>239600</v>
+      </c>
+      <c r="K41" s="3">
         <v>353300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1832,8 +2005,14 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +2049,14 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,35 +2225,41 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1634600</v>
+        <v>1443900</v>
       </c>
       <c r="E47" s="3">
-        <v>1910400</v>
+        <v>1546000</v>
       </c>
       <c r="F47" s="3">
-        <v>2108500</v>
+        <v>1594500</v>
       </c>
       <c r="G47" s="3">
-        <v>2275400</v>
+        <v>1863500</v>
       </c>
       <c r="H47" s="3">
-        <v>2531700</v>
+        <v>2056800</v>
       </c>
       <c r="I47" s="3">
+        <v>2219600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2469600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2500700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2060,35 +2269,41 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7700</v>
+        <v>5200</v>
       </c>
       <c r="E48" s="3">
-        <v>9900</v>
+        <v>6600</v>
       </c>
       <c r="F48" s="3">
-        <v>14400</v>
+        <v>7500</v>
       </c>
       <c r="G48" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2098,35 +2313,41 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>500</v>
+      </c>
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
-        <v>600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,35 +2445,41 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37700</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
-        <v>39500</v>
+        <v>2300</v>
       </c>
       <c r="F52" s="3">
-        <v>37100</v>
+        <v>36800</v>
       </c>
       <c r="G52" s="3">
-        <v>31200</v>
+        <v>38500</v>
       </c>
       <c r="H52" s="3">
-        <v>27000</v>
+        <v>36200</v>
       </c>
       <c r="I52" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K52" s="3">
         <v>23900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,35 +2533,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1912200</v>
+        <v>1727200</v>
       </c>
       <c r="E54" s="3">
-        <v>2243200</v>
+        <v>1823200</v>
       </c>
       <c r="F54" s="3">
-        <v>2455300</v>
+        <v>1865300</v>
       </c>
       <c r="G54" s="3">
-        <v>2777000</v>
+        <v>2188200</v>
       </c>
       <c r="H54" s="3">
-        <v>2826000</v>
+        <v>2395100</v>
       </c>
       <c r="I54" s="3">
+        <v>2708900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2756600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2901400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2326,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,35 +2701,41 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>116400</v>
+        <v>24300</v>
       </c>
       <c r="E59" s="3">
-        <v>116600</v>
+        <v>29700</v>
       </c>
       <c r="F59" s="3">
-        <v>117100</v>
+        <v>113500</v>
       </c>
       <c r="G59" s="3">
-        <v>105000</v>
+        <v>113700</v>
       </c>
       <c r="H59" s="3">
-        <v>94700</v>
+        <v>114200</v>
       </c>
       <c r="I59" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K59" s="3">
         <v>88200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2472,8 +2745,14 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,35 +2789,41 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>945500</v>
+        <v>893700</v>
       </c>
       <c r="E61" s="3">
-        <v>1227000</v>
+        <v>931000</v>
       </c>
       <c r="F61" s="3">
-        <v>1348500</v>
+        <v>922300</v>
       </c>
       <c r="G61" s="3">
-        <v>1594200</v>
+        <v>1196900</v>
       </c>
       <c r="H61" s="3">
-        <v>1753400</v>
+        <v>1315400</v>
       </c>
       <c r="I61" s="3">
+        <v>1555100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1710400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1789000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2548,16 +2833,22 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>47200</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>50300</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2566,17 +2857,17 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,35 +3009,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1404600</v>
+        <v>1232500</v>
       </c>
       <c r="E66" s="3">
-        <v>1762500</v>
+        <v>1319500</v>
       </c>
       <c r="F66" s="3">
-        <v>1999300</v>
+        <v>1370100</v>
       </c>
       <c r="G66" s="3">
-        <v>2340000</v>
+        <v>1719200</v>
       </c>
       <c r="H66" s="3">
-        <v>2462200</v>
+        <v>1950300</v>
       </c>
       <c r="I66" s="3">
+        <v>2282600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2401800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2572900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2738,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,35 +3247,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>373200</v>
+        <v>360900</v>
       </c>
       <c r="E72" s="3">
-        <v>347800</v>
+        <v>372600</v>
       </c>
       <c r="F72" s="3">
-        <v>324700</v>
+        <v>364100</v>
       </c>
       <c r="G72" s="3">
-        <v>305300</v>
+        <v>339200</v>
       </c>
       <c r="H72" s="3">
-        <v>278300</v>
+        <v>316700</v>
       </c>
       <c r="I72" s="3">
+        <v>297800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K72" s="3">
         <v>244600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2944,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,35 +3423,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>507600</v>
+        <v>494800</v>
       </c>
       <c r="E76" s="3">
-        <v>480700</v>
+        <v>503700</v>
       </c>
       <c r="F76" s="3">
-        <v>456000</v>
+        <v>495200</v>
       </c>
       <c r="G76" s="3">
-        <v>437000</v>
+        <v>468900</v>
       </c>
       <c r="H76" s="3">
-        <v>363700</v>
+        <v>444800</v>
       </c>
       <c r="I76" s="3">
+        <v>426300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>354800</v>
+      </c>
+      <c r="K76" s="3">
         <v>328500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3096,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>25400</v>
+        <v>-9200</v>
       </c>
       <c r="E81" s="3">
-        <v>23100</v>
+        <v>8500</v>
       </c>
       <c r="F81" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>22500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>19000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>26300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>34600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>28200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>26100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O81" s="3">
         <v>19400</v>
       </c>
-      <c r="G81" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>33700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>28200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>26100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>17000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>19400</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3886,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3497,8 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3665,8 +4124,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4318,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4406,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3945,6 +4448,12 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74800</v>
+        <v>72900</v>
       </c>
       <c r="E8" s="3">
-        <v>83900</v>
+        <v>77600</v>
       </c>
       <c r="F8" s="3">
-        <v>106200</v>
+        <v>87100</v>
       </c>
       <c r="G8" s="3">
-        <v>116100</v>
+        <v>110200</v>
       </c>
       <c r="H8" s="3">
-        <v>127400</v>
+        <v>120500</v>
       </c>
       <c r="I8" s="3">
-        <v>143000</v>
+        <v>132200</v>
       </c>
       <c r="J8" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K8" s="3">
         <v>156200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>154400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>153100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>159700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>139300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>115800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41300</v>
+        <v>42200</v>
       </c>
       <c r="E9" s="3">
-        <v>43700</v>
+        <v>42900</v>
       </c>
       <c r="F9" s="3">
-        <v>49300</v>
+        <v>45400</v>
       </c>
       <c r="G9" s="3">
-        <v>56100</v>
+        <v>51100</v>
       </c>
       <c r="H9" s="3">
-        <v>58600</v>
+        <v>58200</v>
       </c>
       <c r="I9" s="3">
-        <v>65800</v>
+        <v>60800</v>
       </c>
       <c r="J9" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K9" s="3">
         <v>73000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>60000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33500</v>
+        <v>30700</v>
       </c>
       <c r="E10" s="3">
-        <v>40200</v>
+        <v>34700</v>
       </c>
       <c r="F10" s="3">
-        <v>56900</v>
+        <v>41700</v>
       </c>
       <c r="G10" s="3">
-        <v>60100</v>
+        <v>59100</v>
       </c>
       <c r="H10" s="3">
-        <v>68800</v>
+        <v>62300</v>
       </c>
       <c r="I10" s="3">
-        <v>77200</v>
+        <v>71400</v>
       </c>
       <c r="J10" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K10" s="3">
         <v>83200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>86000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>90100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>79300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>69900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>86300</v>
+        <v>67000</v>
       </c>
       <c r="E17" s="3">
-        <v>72200</v>
+        <v>89500</v>
       </c>
       <c r="F17" s="3">
-        <v>72700</v>
+        <v>74900</v>
       </c>
       <c r="G17" s="3">
-        <v>85800</v>
+        <v>75500</v>
       </c>
       <c r="H17" s="3">
-        <v>102000</v>
+        <v>89100</v>
       </c>
       <c r="I17" s="3">
-        <v>107600</v>
+        <v>105900</v>
       </c>
       <c r="J17" s="3">
+        <v>111700</v>
+      </c>
+      <c r="K17" s="3">
         <v>111800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>109800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>113500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>121900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>87900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11500</v>
+        <v>5900</v>
       </c>
       <c r="E18" s="3">
-        <v>11800</v>
+        <v>-12000</v>
       </c>
       <c r="F18" s="3">
-        <v>33500</v>
+        <v>12200</v>
       </c>
       <c r="G18" s="3">
-        <v>30300</v>
+        <v>34800</v>
       </c>
       <c r="H18" s="3">
-        <v>25300</v>
+        <v>31400</v>
       </c>
       <c r="I18" s="3">
-        <v>35400</v>
+        <v>26300</v>
       </c>
       <c r="J18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K18" s="3">
         <v>44400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1242,32 +1279,35 @@
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>45600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>39400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>28600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11500</v>
+        <v>5900</v>
       </c>
       <c r="E23" s="3">
-        <v>11800</v>
+        <v>-12000</v>
       </c>
       <c r="F23" s="3">
-        <v>33500</v>
+        <v>12200</v>
       </c>
       <c r="G23" s="3">
-        <v>30300</v>
+        <v>34800</v>
       </c>
       <c r="H23" s="3">
-        <v>25400</v>
+        <v>31400</v>
       </c>
       <c r="I23" s="3">
-        <v>35400</v>
+        <v>26300</v>
       </c>
       <c r="J23" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K23" s="3">
         <v>44400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2300</v>
+        <v>2300</v>
       </c>
       <c r="E24" s="3">
-        <v>3200</v>
+        <v>-2400</v>
       </c>
       <c r="F24" s="3">
-        <v>8700</v>
+        <v>3400</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>9000</v>
       </c>
       <c r="H24" s="3">
-        <v>6400</v>
+        <v>8100</v>
       </c>
       <c r="I24" s="3">
-        <v>9100</v>
+        <v>6600</v>
       </c>
       <c r="J24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9200</v>
+        <v>3700</v>
       </c>
       <c r="E26" s="3">
-        <v>8500</v>
+        <v>-9600</v>
       </c>
       <c r="F26" s="3">
-        <v>24800</v>
+        <v>8900</v>
       </c>
       <c r="G26" s="3">
-        <v>22500</v>
+        <v>25800</v>
       </c>
       <c r="H26" s="3">
-        <v>19000</v>
+        <v>23400</v>
       </c>
       <c r="I26" s="3">
-        <v>26300</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K26" s="3">
         <v>32900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9200</v>
+        <v>3700</v>
       </c>
       <c r="E27" s="3">
-        <v>8500</v>
+        <v>-9600</v>
       </c>
       <c r="F27" s="3">
-        <v>24800</v>
+        <v>8900</v>
       </c>
       <c r="G27" s="3">
-        <v>22500</v>
+        <v>25800</v>
       </c>
       <c r="H27" s="3">
-        <v>19000</v>
+        <v>23400</v>
       </c>
       <c r="I27" s="3">
-        <v>26300</v>
+        <v>19700</v>
       </c>
       <c r="J27" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K27" s="3">
         <v>32900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9200</v>
+        <v>3700</v>
       </c>
       <c r="E33" s="3">
-        <v>8500</v>
+        <v>-9600</v>
       </c>
       <c r="F33" s="3">
-        <v>24800</v>
+        <v>8900</v>
       </c>
       <c r="G33" s="3">
-        <v>22500</v>
+        <v>25800</v>
       </c>
       <c r="H33" s="3">
-        <v>19000</v>
+        <v>23400</v>
       </c>
       <c r="I33" s="3">
-        <v>26300</v>
+        <v>19700</v>
       </c>
       <c r="J33" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K33" s="3">
         <v>32900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9200</v>
+        <v>3700</v>
       </c>
       <c r="E35" s="3">
-        <v>8500</v>
+        <v>-9600</v>
       </c>
       <c r="F35" s="3">
-        <v>24800</v>
+        <v>8900</v>
       </c>
       <c r="G35" s="3">
-        <v>22500</v>
+        <v>25800</v>
       </c>
       <c r="H35" s="3">
-        <v>19000</v>
+        <v>23400</v>
       </c>
       <c r="I35" s="3">
-        <v>26300</v>
+        <v>19700</v>
       </c>
       <c r="J35" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K35" s="3">
         <v>32900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>232600</v>
+        <v>280800</v>
       </c>
       <c r="E41" s="3">
-        <v>238700</v>
+        <v>241300</v>
       </c>
       <c r="F41" s="3">
-        <v>215100</v>
+        <v>247700</v>
       </c>
       <c r="G41" s="3">
-        <v>265600</v>
+        <v>223200</v>
       </c>
       <c r="H41" s="3">
-        <v>274400</v>
+        <v>275600</v>
       </c>
       <c r="I41" s="3">
-        <v>442500</v>
+        <v>284700</v>
       </c>
       <c r="J41" s="3">
+        <v>459200</v>
+      </c>
+      <c r="K41" s="3">
         <v>239600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>353300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,38 +2333,41 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1443900</v>
+        <v>1396100</v>
       </c>
       <c r="E47" s="3">
-        <v>1546000</v>
+        <v>1498300</v>
       </c>
       <c r="F47" s="3">
-        <v>1594500</v>
+        <v>1604200</v>
       </c>
       <c r="G47" s="3">
-        <v>1863500</v>
+        <v>1654600</v>
       </c>
       <c r="H47" s="3">
-        <v>2056800</v>
+        <v>1933700</v>
       </c>
       <c r="I47" s="3">
-        <v>2219600</v>
+        <v>2134200</v>
       </c>
       <c r="J47" s="3">
+        <v>2303200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2469600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2500700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2275,38 +2380,41 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5200</v>
+        <v>4600</v>
       </c>
       <c r="E48" s="3">
-        <v>6600</v>
+        <v>5400</v>
       </c>
       <c r="F48" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="G48" s="3">
-        <v>9700</v>
+        <v>7800</v>
       </c>
       <c r="H48" s="3">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="I48" s="3">
-        <v>2700</v>
+        <v>14600</v>
       </c>
       <c r="J48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,7 +2445,7 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
@@ -2343,13 +2454,13 @@
         <v>600</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>500</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
-        <v>36800</v>
+        <v>2400</v>
       </c>
       <c r="G52" s="3">
-        <v>38500</v>
+        <v>38200</v>
       </c>
       <c r="H52" s="3">
-        <v>36200</v>
+        <v>40000</v>
       </c>
       <c r="I52" s="3">
-        <v>30500</v>
+        <v>37600</v>
       </c>
       <c r="J52" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K52" s="3">
         <v>26300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1727200</v>
+        <v>1751100</v>
       </c>
       <c r="E54" s="3">
-        <v>1823200</v>
+        <v>1792300</v>
       </c>
       <c r="F54" s="3">
-        <v>1865300</v>
+        <v>1891800</v>
       </c>
       <c r="G54" s="3">
-        <v>2188200</v>
+        <v>1935600</v>
       </c>
       <c r="H54" s="3">
-        <v>2395100</v>
+        <v>2270600</v>
       </c>
       <c r="I54" s="3">
-        <v>2708900</v>
+        <v>2485300</v>
       </c>
       <c r="J54" s="3">
+        <v>2810900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2756600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2901400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,31 +2794,34 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>141100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>78200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>126500</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>202500</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>317400</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>473900</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>612000</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24300</v>
+        <v>44600</v>
       </c>
       <c r="E59" s="3">
-        <v>29700</v>
+        <v>25200</v>
       </c>
       <c r="F59" s="3">
-        <v>113500</v>
+        <v>30800</v>
       </c>
       <c r="G59" s="3">
-        <v>113700</v>
+        <v>117800</v>
       </c>
       <c r="H59" s="3">
-        <v>114200</v>
+        <v>118000</v>
       </c>
       <c r="I59" s="3">
-        <v>102400</v>
+        <v>118500</v>
       </c>
       <c r="J59" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K59" s="3">
         <v>92400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>88200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,38 +2935,41 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>893700</v>
+        <v>792800</v>
       </c>
       <c r="E61" s="3">
-        <v>931000</v>
+        <v>927400</v>
       </c>
       <c r="F61" s="3">
-        <v>922300</v>
+        <v>966100</v>
       </c>
       <c r="G61" s="3">
-        <v>1196900</v>
+        <v>957000</v>
       </c>
       <c r="H61" s="3">
-        <v>1315400</v>
+        <v>1241900</v>
       </c>
       <c r="I61" s="3">
-        <v>1555100</v>
+        <v>1365000</v>
       </c>
       <c r="J61" s="3">
+        <v>1613600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1710400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1789000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2839,25 +2982,28 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47200</v>
+        <v>30400</v>
       </c>
       <c r="E62" s="3">
-        <v>50300</v>
+        <v>49000</v>
       </c>
       <c r="F62" s="3">
+        <v>52200</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -2866,11 +3012,11 @@
         <v>200</v>
       </c>
       <c r="K62" s="3">
+        <v>200</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1232500</v>
+        <v>1231800</v>
       </c>
       <c r="E66" s="3">
-        <v>1319500</v>
+        <v>1278900</v>
       </c>
       <c r="F66" s="3">
-        <v>1370100</v>
+        <v>1369200</v>
       </c>
       <c r="G66" s="3">
-        <v>1719200</v>
+        <v>1421700</v>
       </c>
       <c r="H66" s="3">
-        <v>1950300</v>
+        <v>1784000</v>
       </c>
       <c r="I66" s="3">
-        <v>2282600</v>
+        <v>2023700</v>
       </c>
       <c r="J66" s="3">
+        <v>2368600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2401800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2572900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>360900</v>
+        <v>378100</v>
       </c>
       <c r="E72" s="3">
-        <v>372600</v>
+        <v>374500</v>
       </c>
       <c r="F72" s="3">
-        <v>364100</v>
+        <v>386600</v>
       </c>
       <c r="G72" s="3">
-        <v>339200</v>
+        <v>377800</v>
       </c>
       <c r="H72" s="3">
-        <v>316700</v>
+        <v>352000</v>
       </c>
       <c r="I72" s="3">
-        <v>297800</v>
+        <v>328700</v>
       </c>
       <c r="J72" s="3">
+        <v>309000</v>
+      </c>
+      <c r="K72" s="3">
         <v>271400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>244600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>494800</v>
+        <v>519300</v>
       </c>
       <c r="E76" s="3">
-        <v>503700</v>
+        <v>513400</v>
       </c>
       <c r="F76" s="3">
-        <v>495200</v>
+        <v>522600</v>
       </c>
       <c r="G76" s="3">
-        <v>468900</v>
+        <v>513800</v>
       </c>
       <c r="H76" s="3">
-        <v>444800</v>
+        <v>486600</v>
       </c>
       <c r="I76" s="3">
-        <v>426300</v>
+        <v>461600</v>
       </c>
       <c r="J76" s="3">
+        <v>442300</v>
+      </c>
+      <c r="K76" s="3">
         <v>354800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>328500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9200</v>
+        <v>3700</v>
       </c>
       <c r="E81" s="3">
-        <v>8500</v>
+        <v>-9600</v>
       </c>
       <c r="F81" s="3">
-        <v>24800</v>
+        <v>8900</v>
       </c>
       <c r="G81" s="3">
-        <v>22500</v>
+        <v>25800</v>
       </c>
       <c r="H81" s="3">
-        <v>19000</v>
+        <v>23400</v>
       </c>
       <c r="I81" s="3">
-        <v>26300</v>
+        <v>19700</v>
       </c>
       <c r="J81" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K81" s="3">
         <v>32900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4706,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72900</v>
+        <v>79200</v>
       </c>
       <c r="E8" s="3">
-        <v>77600</v>
+        <v>76400</v>
       </c>
       <c r="F8" s="3">
-        <v>87100</v>
+        <v>81300</v>
       </c>
       <c r="G8" s="3">
-        <v>110200</v>
+        <v>91200</v>
       </c>
       <c r="H8" s="3">
-        <v>120500</v>
+        <v>115500</v>
       </c>
       <c r="I8" s="3">
-        <v>132200</v>
+        <v>126200</v>
       </c>
       <c r="J8" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K8" s="3">
         <v>148400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>156200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>154400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>153100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>159700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>139300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>115800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42200</v>
+        <v>45200</v>
       </c>
       <c r="E9" s="3">
-        <v>42900</v>
+        <v>44200</v>
       </c>
       <c r="F9" s="3">
-        <v>45400</v>
+        <v>44900</v>
       </c>
       <c r="G9" s="3">
-        <v>51100</v>
+        <v>47600</v>
       </c>
       <c r="H9" s="3">
-        <v>58200</v>
+        <v>53600</v>
       </c>
       <c r="I9" s="3">
-        <v>60800</v>
+        <v>60900</v>
       </c>
       <c r="J9" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K9" s="3">
         <v>68300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>73000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>60000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30700</v>
+        <v>34000</v>
       </c>
       <c r="E10" s="3">
-        <v>34700</v>
+        <v>32200</v>
       </c>
       <c r="F10" s="3">
-        <v>41700</v>
+        <v>36400</v>
       </c>
       <c r="G10" s="3">
-        <v>59100</v>
+        <v>43700</v>
       </c>
       <c r="H10" s="3">
-        <v>62300</v>
+        <v>61900</v>
       </c>
       <c r="I10" s="3">
-        <v>71400</v>
+        <v>65300</v>
       </c>
       <c r="J10" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K10" s="3">
         <v>80100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>86000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>90100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>79300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>69900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>67000</v>
+        <v>67800</v>
       </c>
       <c r="E17" s="3">
-        <v>89500</v>
+        <v>70200</v>
       </c>
       <c r="F17" s="3">
-        <v>74900</v>
+        <v>93800</v>
       </c>
       <c r="G17" s="3">
-        <v>75500</v>
+        <v>78400</v>
       </c>
       <c r="H17" s="3">
-        <v>89100</v>
+        <v>79100</v>
       </c>
       <c r="I17" s="3">
-        <v>105900</v>
+        <v>93300</v>
       </c>
       <c r="J17" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K17" s="3">
         <v>111700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>111800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>113500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>121900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5900</v>
+        <v>11400</v>
       </c>
       <c r="E18" s="3">
-        <v>-12000</v>
+        <v>6200</v>
       </c>
       <c r="F18" s="3">
-        <v>12200</v>
+        <v>-12500</v>
       </c>
       <c r="G18" s="3">
-        <v>34800</v>
+        <v>12800</v>
       </c>
       <c r="H18" s="3">
-        <v>31400</v>
+        <v>36400</v>
       </c>
       <c r="I18" s="3">
-        <v>26300</v>
+        <v>32900</v>
       </c>
       <c r="J18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K18" s="3">
         <v>36800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>37800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>29400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,32 +1319,35 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>38700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>45600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>39400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>28600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5900</v>
+        <v>11400</v>
       </c>
       <c r="E23" s="3">
-        <v>-12000</v>
+        <v>6200</v>
       </c>
       <c r="F23" s="3">
-        <v>12200</v>
+        <v>-12500</v>
       </c>
       <c r="G23" s="3">
-        <v>34800</v>
+        <v>12800</v>
       </c>
       <c r="H23" s="3">
-        <v>31400</v>
+        <v>36400</v>
       </c>
       <c r="I23" s="3">
-        <v>26300</v>
+        <v>32900</v>
       </c>
       <c r="J23" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K23" s="3">
         <v>36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>-2400</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="3">
-        <v>3400</v>
+        <v>-2500</v>
       </c>
       <c r="G24" s="3">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="3">
-        <v>8100</v>
+        <v>9400</v>
       </c>
       <c r="I24" s="3">
-        <v>6600</v>
+        <v>8500</v>
       </c>
       <c r="J24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K24" s="3">
         <v>9400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3700</v>
+        <v>7600</v>
       </c>
       <c r="E26" s="3">
-        <v>-9600</v>
+        <v>3800</v>
       </c>
       <c r="F26" s="3">
-        <v>8900</v>
+        <v>-10000</v>
       </c>
       <c r="G26" s="3">
-        <v>25800</v>
+        <v>9300</v>
       </c>
       <c r="H26" s="3">
-        <v>23400</v>
+        <v>27000</v>
       </c>
       <c r="I26" s="3">
-        <v>19700</v>
+        <v>24500</v>
       </c>
       <c r="J26" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K26" s="3">
         <v>27300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>34600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>19400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3700</v>
+        <v>7600</v>
       </c>
       <c r="E27" s="3">
-        <v>-9600</v>
+        <v>3800</v>
       </c>
       <c r="F27" s="3">
-        <v>8900</v>
+        <v>-10000</v>
       </c>
       <c r="G27" s="3">
-        <v>25800</v>
+        <v>9300</v>
       </c>
       <c r="H27" s="3">
-        <v>23400</v>
+        <v>27000</v>
       </c>
       <c r="I27" s="3">
-        <v>19700</v>
+        <v>24500</v>
       </c>
       <c r="J27" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K27" s="3">
         <v>27300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>19400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3700</v>
+        <v>7600</v>
       </c>
       <c r="E33" s="3">
-        <v>-9600</v>
+        <v>3800</v>
       </c>
       <c r="F33" s="3">
-        <v>8900</v>
+        <v>-10000</v>
       </c>
       <c r="G33" s="3">
-        <v>25800</v>
+        <v>9300</v>
       </c>
       <c r="H33" s="3">
-        <v>23400</v>
+        <v>27000</v>
       </c>
       <c r="I33" s="3">
-        <v>19700</v>
+        <v>24500</v>
       </c>
       <c r="J33" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K33" s="3">
         <v>27300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>32900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>19400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3700</v>
+        <v>7600</v>
       </c>
       <c r="E35" s="3">
-        <v>-9600</v>
+        <v>3800</v>
       </c>
       <c r="F35" s="3">
-        <v>8900</v>
+        <v>-10000</v>
       </c>
       <c r="G35" s="3">
-        <v>25800</v>
+        <v>9300</v>
       </c>
       <c r="H35" s="3">
-        <v>23400</v>
+        <v>27000</v>
       </c>
       <c r="I35" s="3">
-        <v>19700</v>
+        <v>24500</v>
       </c>
       <c r="J35" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K35" s="3">
         <v>27300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>32900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>19400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,41 +2140,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>280800</v>
+        <v>256600</v>
       </c>
       <c r="E41" s="3">
-        <v>241300</v>
+        <v>294200</v>
       </c>
       <c r="F41" s="3">
-        <v>247700</v>
+        <v>252800</v>
       </c>
       <c r="G41" s="3">
-        <v>223200</v>
+        <v>259400</v>
       </c>
       <c r="H41" s="3">
-        <v>275600</v>
+        <v>233800</v>
       </c>
       <c r="I41" s="3">
-        <v>284700</v>
+        <v>288700</v>
       </c>
       <c r="J41" s="3">
+        <v>298200</v>
+      </c>
+      <c r="K41" s="3">
         <v>459200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>239600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>353300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,41 +2438,44 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1396100</v>
+        <v>1448400</v>
       </c>
       <c r="E47" s="3">
-        <v>1498300</v>
+        <v>1462400</v>
       </c>
       <c r="F47" s="3">
-        <v>1604200</v>
+        <v>1569300</v>
       </c>
       <c r="G47" s="3">
-        <v>1654600</v>
+        <v>1680300</v>
       </c>
       <c r="H47" s="3">
-        <v>1933700</v>
+        <v>1733100</v>
       </c>
       <c r="I47" s="3">
-        <v>2134200</v>
+        <v>2025400</v>
       </c>
       <c r="J47" s="3">
+        <v>2235500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2303200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2469600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2500700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,41 +2488,44 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="E48" s="3">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="F48" s="3">
-        <v>6900</v>
+        <v>5700</v>
       </c>
       <c r="G48" s="3">
-        <v>7800</v>
+        <v>7200</v>
       </c>
       <c r="H48" s="3">
-        <v>10000</v>
+        <v>8200</v>
       </c>
       <c r="I48" s="3">
-        <v>14600</v>
+        <v>10500</v>
       </c>
       <c r="J48" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2457,13 +2568,13 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>500</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,41 +2688,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2400</v>
-      </c>
       <c r="G52" s="3">
-        <v>38200</v>
+        <v>2500</v>
       </c>
       <c r="H52" s="3">
         <v>40000</v>
       </c>
       <c r="I52" s="3">
-        <v>37600</v>
+        <v>41900</v>
       </c>
       <c r="J52" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K52" s="3">
         <v>31600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2788,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1751100</v>
+        <v>1811600</v>
       </c>
       <c r="E54" s="3">
-        <v>1792300</v>
+        <v>1834200</v>
       </c>
       <c r="F54" s="3">
-        <v>1891800</v>
+        <v>1877300</v>
       </c>
       <c r="G54" s="3">
-        <v>1935600</v>
+        <v>1981600</v>
       </c>
       <c r="H54" s="3">
-        <v>2270600</v>
+        <v>2027400</v>
       </c>
       <c r="I54" s="3">
-        <v>2485300</v>
+        <v>2378300</v>
       </c>
       <c r="J54" s="3">
+        <v>2603200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2810900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2756600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2901400</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,35 +2928,38 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>141100</v>
+        <v>115400</v>
       </c>
       <c r="E58" s="3">
-        <v>78200</v>
+        <v>147800</v>
       </c>
       <c r="F58" s="3">
-        <v>126500</v>
+        <v>81900</v>
       </c>
       <c r="G58" s="3">
-        <v>202500</v>
+        <v>132500</v>
       </c>
       <c r="H58" s="3">
-        <v>317400</v>
+        <v>212100</v>
       </c>
       <c r="I58" s="3">
-        <v>473900</v>
+        <v>332400</v>
       </c>
       <c r="J58" s="3">
+        <v>496400</v>
+      </c>
+      <c r="K58" s="3">
         <v>612000</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -2844,41 +2978,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44600</v>
+        <v>56600</v>
       </c>
       <c r="E59" s="3">
-        <v>25200</v>
+        <v>46700</v>
       </c>
       <c r="F59" s="3">
-        <v>30800</v>
+        <v>26400</v>
       </c>
       <c r="G59" s="3">
-        <v>117800</v>
+        <v>32300</v>
       </c>
       <c r="H59" s="3">
-        <v>118000</v>
+        <v>123400</v>
       </c>
       <c r="I59" s="3">
-        <v>118500</v>
+        <v>123600</v>
       </c>
       <c r="J59" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K59" s="3">
         <v>106200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>92400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>88200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,41 +3078,44 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>792800</v>
+        <v>807000</v>
       </c>
       <c r="E61" s="3">
-        <v>927400</v>
+        <v>830400</v>
       </c>
       <c r="F61" s="3">
-        <v>966100</v>
+        <v>971400</v>
       </c>
       <c r="G61" s="3">
-        <v>957000</v>
+        <v>1011900</v>
       </c>
       <c r="H61" s="3">
-        <v>1241900</v>
+        <v>1002400</v>
       </c>
       <c r="I61" s="3">
-        <v>1365000</v>
+        <v>1300900</v>
       </c>
       <c r="J61" s="3">
+        <v>1429700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1613600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1710400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1789000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2985,25 +3128,28 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>30400</v>
+        <v>25300</v>
       </c>
       <c r="E62" s="3">
-        <v>49000</v>
+        <v>31900</v>
       </c>
       <c r="F62" s="3">
-        <v>52200</v>
+        <v>51300</v>
       </c>
       <c r="G62" s="3">
+        <v>54700</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3015,11 +3161,11 @@
         <v>200</v>
       </c>
       <c r="L62" s="3">
+        <v>200</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,41 +3328,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1231800</v>
+        <v>1258900</v>
       </c>
       <c r="E66" s="3">
-        <v>1278900</v>
+        <v>1290300</v>
       </c>
       <c r="F66" s="3">
-        <v>1369200</v>
+        <v>1339600</v>
       </c>
       <c r="G66" s="3">
-        <v>1421700</v>
+        <v>1434100</v>
       </c>
       <c r="H66" s="3">
-        <v>1784000</v>
+        <v>1489200</v>
       </c>
       <c r="I66" s="3">
-        <v>2023700</v>
+        <v>1868600</v>
       </c>
       <c r="J66" s="3">
+        <v>2119700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2368600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2401800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2572900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,41 +3598,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>378100</v>
+        <v>403700</v>
       </c>
       <c r="E72" s="3">
-        <v>374500</v>
+        <v>396100</v>
       </c>
       <c r="F72" s="3">
-        <v>386600</v>
+        <v>392200</v>
       </c>
       <c r="G72" s="3">
-        <v>377800</v>
+        <v>405000</v>
       </c>
       <c r="H72" s="3">
-        <v>352000</v>
+        <v>395700</v>
       </c>
       <c r="I72" s="3">
-        <v>328700</v>
+        <v>368700</v>
       </c>
       <c r="J72" s="3">
+        <v>344300</v>
+      </c>
+      <c r="K72" s="3">
         <v>309000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>271400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>244600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,41 +3798,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>519300</v>
+        <v>552700</v>
       </c>
       <c r="E76" s="3">
-        <v>513400</v>
+        <v>543900</v>
       </c>
       <c r="F76" s="3">
-        <v>522600</v>
+        <v>537700</v>
       </c>
       <c r="G76" s="3">
-        <v>513800</v>
+        <v>547400</v>
       </c>
       <c r="H76" s="3">
-        <v>486600</v>
+        <v>538200</v>
       </c>
       <c r="I76" s="3">
-        <v>461600</v>
+        <v>509700</v>
       </c>
       <c r="J76" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K76" s="3">
         <v>442300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>354800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>328500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3700</v>
+        <v>7600</v>
       </c>
       <c r="E81" s="3">
-        <v>-9600</v>
+        <v>3800</v>
       </c>
       <c r="F81" s="3">
-        <v>8900</v>
+        <v>-10000</v>
       </c>
       <c r="G81" s="3">
-        <v>25800</v>
+        <v>9300</v>
       </c>
       <c r="H81" s="3">
-        <v>23400</v>
+        <v>27000</v>
       </c>
       <c r="I81" s="3">
-        <v>19700</v>
+        <v>24500</v>
       </c>
       <c r="J81" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K81" s="3">
         <v>27300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>32900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>19400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79200</v>
+        <v>72900</v>
       </c>
       <c r="E8" s="3">
-        <v>76400</v>
+        <v>79500</v>
       </c>
       <c r="F8" s="3">
-        <v>81300</v>
+        <v>76700</v>
       </c>
       <c r="G8" s="3">
-        <v>91200</v>
+        <v>81600</v>
       </c>
       <c r="H8" s="3">
-        <v>115500</v>
+        <v>91600</v>
       </c>
       <c r="I8" s="3">
-        <v>126200</v>
+        <v>116000</v>
       </c>
       <c r="J8" s="3">
+        <v>126800</v>
+      </c>
+      <c r="K8" s="3">
         <v>138400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>148400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>156200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>154400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>153100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>159700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>139300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>115800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>45200</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>44200</v>
+        <v>45300</v>
       </c>
       <c r="F9" s="3">
-        <v>44900</v>
+        <v>44400</v>
       </c>
       <c r="G9" s="3">
-        <v>47600</v>
+        <v>45100</v>
       </c>
       <c r="H9" s="3">
-        <v>53600</v>
+        <v>47800</v>
       </c>
       <c r="I9" s="3">
-        <v>60900</v>
+        <v>53800</v>
       </c>
       <c r="J9" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K9" s="3">
         <v>63700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>73000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>67000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>60000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34000</v>
+        <v>32600</v>
       </c>
       <c r="E10" s="3">
-        <v>32200</v>
+        <v>34200</v>
       </c>
       <c r="F10" s="3">
-        <v>36400</v>
+        <v>32300</v>
       </c>
       <c r="G10" s="3">
-        <v>43700</v>
+        <v>36500</v>
       </c>
       <c r="H10" s="3">
-        <v>61900</v>
+        <v>43900</v>
       </c>
       <c r="I10" s="3">
-        <v>65300</v>
+        <v>62200</v>
       </c>
       <c r="J10" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K10" s="3">
         <v>74800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>80100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>86000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>90100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>79300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>69900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>67800</v>
+        <v>53100</v>
       </c>
       <c r="E17" s="3">
-        <v>70200</v>
+        <v>68100</v>
       </c>
       <c r="F17" s="3">
-        <v>93800</v>
+        <v>70500</v>
       </c>
       <c r="G17" s="3">
-        <v>78400</v>
+        <v>94200</v>
       </c>
       <c r="H17" s="3">
-        <v>79100</v>
+        <v>78800</v>
       </c>
       <c r="I17" s="3">
-        <v>93300</v>
+        <v>79400</v>
       </c>
       <c r="J17" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K17" s="3">
         <v>110900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>111700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>111800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>113500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>121900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E18" s="3">
         <v>11400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G18" s="3">
-        <v>12800</v>
+        <v>-12600</v>
       </c>
       <c r="H18" s="3">
-        <v>36400</v>
+        <v>12900</v>
       </c>
       <c r="I18" s="3">
-        <v>32900</v>
+        <v>36600</v>
       </c>
       <c r="J18" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K18" s="3">
         <v>27600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>37800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>29400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1322,32 +1358,35 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>38700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>45600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>39400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>28600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E23" s="3">
         <v>11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="H23" s="3">
         <v>12800</v>
       </c>
-      <c r="H23" s="3">
-        <v>36400</v>
-      </c>
       <c r="I23" s="3">
-        <v>32900</v>
+        <v>36600</v>
       </c>
       <c r="J23" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K23" s="3">
         <v>27600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,49 +1500,52 @@
         <v>3700</v>
       </c>
       <c r="E24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L24" s="3">
         <v>9400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>10100</v>
+      </c>
+      <c r="O24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>11700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="R24" s="3">
         <v>8500</v>
       </c>
-      <c r="J24" s="3">
-        <v>6900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>11500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>10100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>11400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>11700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>12400</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>8500</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="E26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F26" s="3">
         <v>3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9300</v>
       </c>
-      <c r="H26" s="3">
-        <v>27000</v>
-      </c>
       <c r="I26" s="3">
-        <v>24500</v>
+        <v>27100</v>
       </c>
       <c r="J26" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K26" s="3">
         <v>20600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>34600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>19400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="E27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F27" s="3">
         <v>3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9300</v>
       </c>
-      <c r="H27" s="3">
-        <v>27000</v>
-      </c>
       <c r="I27" s="3">
-        <v>24500</v>
+        <v>27100</v>
       </c>
       <c r="J27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K27" s="3">
         <v>20600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>19400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="E33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F33" s="3">
         <v>3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9300</v>
       </c>
-      <c r="H33" s="3">
-        <v>27000</v>
-      </c>
       <c r="I33" s="3">
-        <v>24500</v>
+        <v>27100</v>
       </c>
       <c r="J33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K33" s="3">
         <v>20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>32900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>19400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="E35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F35" s="3">
         <v>3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9300</v>
       </c>
-      <c r="H35" s="3">
-        <v>27000</v>
-      </c>
       <c r="I35" s="3">
-        <v>24500</v>
+        <v>27100</v>
       </c>
       <c r="J35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K35" s="3">
         <v>20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>32900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>19400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,44 +2226,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>256600</v>
+        <v>299600</v>
       </c>
       <c r="E41" s="3">
-        <v>294200</v>
+        <v>257700</v>
       </c>
       <c r="F41" s="3">
-        <v>252800</v>
+        <v>295400</v>
       </c>
       <c r="G41" s="3">
-        <v>259400</v>
+        <v>253900</v>
       </c>
       <c r="H41" s="3">
-        <v>233800</v>
+        <v>260500</v>
       </c>
       <c r="I41" s="3">
-        <v>288700</v>
+        <v>234800</v>
       </c>
       <c r="J41" s="3">
+        <v>290000</v>
+      </c>
+      <c r="K41" s="3">
         <v>298200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>459200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>239600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>353300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,44 +2542,47 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1448400</v>
+        <v>1460800</v>
       </c>
       <c r="E47" s="3">
-        <v>1462400</v>
+        <v>1454700</v>
       </c>
       <c r="F47" s="3">
-        <v>1569300</v>
+        <v>1468700</v>
       </c>
       <c r="G47" s="3">
-        <v>1680300</v>
+        <v>1576100</v>
       </c>
       <c r="H47" s="3">
-        <v>1733100</v>
+        <v>1687600</v>
       </c>
       <c r="I47" s="3">
-        <v>2025400</v>
+        <v>1740600</v>
       </c>
       <c r="J47" s="3">
+        <v>2034200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2235500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2303200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2469600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2500700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2491,44 +2595,47 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8200</v>
       </c>
-      <c r="I48" s="3">
-        <v>10500</v>
-      </c>
       <c r="J48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K48" s="3">
         <v>15200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2571,13 +2681,13 @@
         <v>600</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>500</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,44 +2807,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
-        <v>40000</v>
-      </c>
       <c r="I52" s="3">
-        <v>41900</v>
+        <v>40100</v>
       </c>
       <c r="J52" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K52" s="3">
         <v>39300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1811600</v>
+        <v>1864700</v>
       </c>
       <c r="E54" s="3">
-        <v>1834200</v>
+        <v>1819500</v>
       </c>
       <c r="F54" s="3">
-        <v>1877300</v>
+        <v>1842200</v>
       </c>
       <c r="G54" s="3">
-        <v>1981600</v>
+        <v>1885500</v>
       </c>
       <c r="H54" s="3">
-        <v>2027400</v>
+        <v>1990200</v>
       </c>
       <c r="I54" s="3">
-        <v>2378300</v>
+        <v>2036200</v>
       </c>
       <c r="J54" s="3">
+        <v>2388600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2603200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2810900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2756600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2901400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,38 +3061,41 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>115400</v>
+        <v>77700</v>
       </c>
       <c r="E58" s="3">
-        <v>147800</v>
+        <v>115900</v>
       </c>
       <c r="F58" s="3">
-        <v>81900</v>
+        <v>148500</v>
       </c>
       <c r="G58" s="3">
-        <v>132500</v>
+        <v>82300</v>
       </c>
       <c r="H58" s="3">
-        <v>212100</v>
+        <v>133000</v>
       </c>
       <c r="I58" s="3">
-        <v>332400</v>
+        <v>213100</v>
       </c>
       <c r="J58" s="3">
+        <v>333900</v>
+      </c>
+      <c r="K58" s="3">
         <v>496400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>612000</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -2981,44 +3114,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56600</v>
+        <v>71500</v>
       </c>
       <c r="E59" s="3">
-        <v>46700</v>
+        <v>56900</v>
       </c>
       <c r="F59" s="3">
-        <v>26400</v>
+        <v>46900</v>
       </c>
       <c r="G59" s="3">
-        <v>32300</v>
+        <v>26500</v>
       </c>
       <c r="H59" s="3">
-        <v>123400</v>
+        <v>32400</v>
       </c>
       <c r="I59" s="3">
-        <v>123600</v>
+        <v>123900</v>
       </c>
       <c r="J59" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K59" s="3">
         <v>124100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>92400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>88200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3031,8 +3167,11 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,44 +3220,47 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>807000</v>
+        <v>863200</v>
       </c>
       <c r="E61" s="3">
-        <v>830400</v>
+        <v>810500</v>
       </c>
       <c r="F61" s="3">
-        <v>971400</v>
+        <v>834000</v>
       </c>
       <c r="G61" s="3">
-        <v>1011900</v>
+        <v>975600</v>
       </c>
       <c r="H61" s="3">
-        <v>1002400</v>
+        <v>1016300</v>
       </c>
       <c r="I61" s="3">
-        <v>1300900</v>
+        <v>1006800</v>
       </c>
       <c r="J61" s="3">
+        <v>1306500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1429700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1613600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1710400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1789000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3131,28 +3273,31 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25300</v>
+        <v>11800</v>
       </c>
       <c r="E62" s="3">
-        <v>31900</v>
+        <v>25400</v>
       </c>
       <c r="F62" s="3">
-        <v>51300</v>
+        <v>32000</v>
       </c>
       <c r="G62" s="3">
-        <v>54700</v>
+        <v>51500</v>
       </c>
       <c r="H62" s="3">
+        <v>54900</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
@@ -3164,11 +3309,11 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
+        <v>200</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,44 +3485,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1258900</v>
+        <v>1293100</v>
       </c>
       <c r="E66" s="3">
-        <v>1290300</v>
+        <v>1264400</v>
       </c>
       <c r="F66" s="3">
-        <v>1339600</v>
+        <v>1295900</v>
       </c>
       <c r="G66" s="3">
-        <v>1434100</v>
+        <v>1345400</v>
       </c>
       <c r="H66" s="3">
-        <v>1489200</v>
+        <v>1440400</v>
       </c>
       <c r="I66" s="3">
-        <v>1868600</v>
+        <v>1495600</v>
       </c>
       <c r="J66" s="3">
+        <v>1876700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2119700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2368600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2401800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2572900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,44 +3771,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>403700</v>
+        <v>421500</v>
       </c>
       <c r="E72" s="3">
-        <v>396100</v>
+        <v>405500</v>
       </c>
       <c r="F72" s="3">
-        <v>392200</v>
+        <v>397800</v>
       </c>
       <c r="G72" s="3">
-        <v>405000</v>
+        <v>393900</v>
       </c>
       <c r="H72" s="3">
-        <v>395700</v>
+        <v>406700</v>
       </c>
       <c r="I72" s="3">
-        <v>368700</v>
+        <v>397400</v>
       </c>
       <c r="J72" s="3">
+        <v>370300</v>
+      </c>
+      <c r="K72" s="3">
         <v>344300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>309000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>271400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>244600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,44 +3983,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>552700</v>
+        <v>571600</v>
       </c>
       <c r="E76" s="3">
-        <v>543900</v>
+        <v>555100</v>
       </c>
       <c r="F76" s="3">
-        <v>537700</v>
+        <v>546300</v>
       </c>
       <c r="G76" s="3">
-        <v>547400</v>
+        <v>540100</v>
       </c>
       <c r="H76" s="3">
-        <v>538200</v>
+        <v>549800</v>
       </c>
       <c r="I76" s="3">
-        <v>509700</v>
+        <v>540500</v>
       </c>
       <c r="J76" s="3">
+        <v>511900</v>
+      </c>
+      <c r="K76" s="3">
         <v>483500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>442300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>354800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>328500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7600</v>
+        <v>16100</v>
       </c>
       <c r="E81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F81" s="3">
         <v>3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9300</v>
       </c>
-      <c r="H81" s="3">
-        <v>27000</v>
-      </c>
       <c r="I81" s="3">
-        <v>24500</v>
+        <v>27100</v>
       </c>
       <c r="J81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K81" s="3">
         <v>20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>32900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>19400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>72900</v>
+        <v>74500</v>
       </c>
       <c r="E8" s="3">
-        <v>79500</v>
+        <v>81200</v>
       </c>
       <c r="F8" s="3">
-        <v>76700</v>
+        <v>78400</v>
       </c>
       <c r="G8" s="3">
-        <v>81600</v>
+        <v>83300</v>
       </c>
       <c r="H8" s="3">
-        <v>91600</v>
+        <v>93600</v>
       </c>
       <c r="I8" s="3">
-        <v>116000</v>
+        <v>118400</v>
       </c>
       <c r="J8" s="3">
-        <v>126800</v>
+        <v>129500</v>
       </c>
       <c r="K8" s="3">
         <v>138400</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40300</v>
+        <v>41100</v>
       </c>
       <c r="E9" s="3">
-        <v>45300</v>
+        <v>46300</v>
       </c>
       <c r="F9" s="3">
-        <v>44400</v>
+        <v>45400</v>
       </c>
       <c r="G9" s="3">
-        <v>45100</v>
+        <v>46000</v>
       </c>
       <c r="H9" s="3">
-        <v>47800</v>
+        <v>48800</v>
       </c>
       <c r="I9" s="3">
-        <v>53800</v>
+        <v>54900</v>
       </c>
       <c r="J9" s="3">
-        <v>61200</v>
+        <v>62500</v>
       </c>
       <c r="K9" s="3">
         <v>63700</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32600</v>
+        <v>33300</v>
       </c>
       <c r="E10" s="3">
-        <v>34200</v>
+        <v>34900</v>
       </c>
       <c r="F10" s="3">
-        <v>32300</v>
+        <v>33000</v>
       </c>
       <c r="G10" s="3">
-        <v>36500</v>
+        <v>37300</v>
       </c>
       <c r="H10" s="3">
-        <v>43900</v>
+        <v>44800</v>
       </c>
       <c r="I10" s="3">
-        <v>62200</v>
+        <v>63500</v>
       </c>
       <c r="J10" s="3">
-        <v>65600</v>
+        <v>67000</v>
       </c>
       <c r="K10" s="3">
         <v>74800</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>53100</v>
+        <v>54300</v>
       </c>
       <c r="E17" s="3">
-        <v>68100</v>
+        <v>69500</v>
       </c>
       <c r="F17" s="3">
-        <v>70500</v>
+        <v>72000</v>
       </c>
       <c r="G17" s="3">
-        <v>94200</v>
+        <v>96200</v>
       </c>
       <c r="H17" s="3">
-        <v>78800</v>
+        <v>80400</v>
       </c>
       <c r="I17" s="3">
-        <v>79400</v>
+        <v>81100</v>
       </c>
       <c r="J17" s="3">
-        <v>93700</v>
+        <v>95700</v>
       </c>
       <c r="K17" s="3">
         <v>110900</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="E18" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="F18" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G18" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="H18" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="I18" s="3">
-        <v>36600</v>
+        <v>37300</v>
       </c>
       <c r="J18" s="3">
-        <v>33100</v>
+        <v>33800</v>
       </c>
       <c r="K18" s="3">
         <v>27600</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="E23" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="F23" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G23" s="3">
-        <v>-12600</v>
+        <v>-12800</v>
       </c>
       <c r="H23" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="I23" s="3">
-        <v>36600</v>
+        <v>37300</v>
       </c>
       <c r="J23" s="3">
-        <v>33100</v>
+        <v>33800</v>
       </c>
       <c r="K23" s="3">
         <v>27600</v>
@@ -1497,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
         <v>3800</v>
@@ -1506,16 +1506,16 @@
         <v>2400</v>
       </c>
       <c r="G24" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H24" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="J24" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="K24" s="3">
         <v>6900</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="E26" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F26" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G26" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="H26" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I26" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="J26" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="K26" s="3">
         <v>20600</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="E27" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F27" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G27" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="H27" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I27" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="J27" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="K27" s="3">
         <v>20600</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="E33" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F33" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G33" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="H33" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I33" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="J33" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="K33" s="3">
         <v>20600</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="E35" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F35" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G35" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="H35" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I35" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="J35" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="K35" s="3">
         <v>20600</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>299600</v>
+        <v>305900</v>
       </c>
       <c r="E41" s="3">
-        <v>257700</v>
+        <v>263100</v>
       </c>
       <c r="F41" s="3">
-        <v>295400</v>
+        <v>301700</v>
       </c>
       <c r="G41" s="3">
-        <v>253900</v>
+        <v>259200</v>
       </c>
       <c r="H41" s="3">
-        <v>260500</v>
+        <v>266100</v>
       </c>
       <c r="I41" s="3">
-        <v>234800</v>
+        <v>239800</v>
       </c>
       <c r="J41" s="3">
-        <v>290000</v>
+        <v>296100</v>
       </c>
       <c r="K41" s="3">
         <v>298200</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1460800</v>
+        <v>1491700</v>
       </c>
       <c r="E47" s="3">
-        <v>1454700</v>
+        <v>1485500</v>
       </c>
       <c r="F47" s="3">
-        <v>1468700</v>
+        <v>1499800</v>
       </c>
       <c r="G47" s="3">
-        <v>1576100</v>
+        <v>1609500</v>
       </c>
       <c r="H47" s="3">
-        <v>1687600</v>
+        <v>1723300</v>
       </c>
       <c r="I47" s="3">
-        <v>1740600</v>
+        <v>1777400</v>
       </c>
       <c r="J47" s="3">
-        <v>2034200</v>
+        <v>2077200</v>
       </c>
       <c r="K47" s="3">
         <v>2235500</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F48" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G48" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H48" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="I48" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="J48" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="K48" s="3">
         <v>15200</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3200</v>
+        <v>11800</v>
       </c>
       <c r="E52" s="3">
         <v>3700</v>
       </c>
       <c r="F52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
-        <v>3000</v>
-      </c>
       <c r="H52" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I52" s="3">
-        <v>40100</v>
+        <v>41000</v>
       </c>
       <c r="J52" s="3">
-        <v>42100</v>
+        <v>43000</v>
       </c>
       <c r="K52" s="3">
         <v>39300</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1864700</v>
+        <v>1908500</v>
       </c>
       <c r="E54" s="3">
-        <v>1819500</v>
+        <v>1857900</v>
       </c>
       <c r="F54" s="3">
-        <v>1842200</v>
+        <v>1881100</v>
       </c>
       <c r="G54" s="3">
-        <v>1885500</v>
+        <v>1925300</v>
       </c>
       <c r="H54" s="3">
-        <v>1990200</v>
+        <v>2032200</v>
       </c>
       <c r="I54" s="3">
-        <v>2036200</v>
+        <v>2079200</v>
       </c>
       <c r="J54" s="3">
-        <v>2388600</v>
+        <v>2439100</v>
       </c>
       <c r="K54" s="3">
         <v>2603200</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>77700</v>
+        <v>79300</v>
       </c>
       <c r="E58" s="3">
-        <v>115900</v>
+        <v>118400</v>
       </c>
       <c r="F58" s="3">
-        <v>148500</v>
+        <v>151600</v>
       </c>
       <c r="G58" s="3">
-        <v>82300</v>
+        <v>84000</v>
       </c>
       <c r="H58" s="3">
-        <v>133000</v>
+        <v>135900</v>
       </c>
       <c r="I58" s="3">
-        <v>213100</v>
+        <v>217600</v>
       </c>
       <c r="J58" s="3">
-        <v>333900</v>
+        <v>340900</v>
       </c>
       <c r="K58" s="3">
         <v>496400</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71500</v>
+        <v>31800</v>
       </c>
       <c r="E59" s="3">
-        <v>56900</v>
+        <v>58100</v>
       </c>
       <c r="F59" s="3">
-        <v>46900</v>
+        <v>47900</v>
       </c>
       <c r="G59" s="3">
-        <v>26500</v>
+        <v>27000</v>
       </c>
       <c r="H59" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="I59" s="3">
-        <v>123900</v>
+        <v>126500</v>
       </c>
       <c r="J59" s="3">
-        <v>124200</v>
+        <v>126800</v>
       </c>
       <c r="K59" s="3">
         <v>124100</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>863200</v>
+        <v>881400</v>
       </c>
       <c r="E61" s="3">
-        <v>810500</v>
+        <v>827600</v>
       </c>
       <c r="F61" s="3">
-        <v>834000</v>
+        <v>851700</v>
       </c>
       <c r="G61" s="3">
-        <v>975600</v>
+        <v>996200</v>
       </c>
       <c r="H61" s="3">
-        <v>1016300</v>
+        <v>1037800</v>
       </c>
       <c r="I61" s="3">
-        <v>1006800</v>
+        <v>1028100</v>
       </c>
       <c r="J61" s="3">
-        <v>1306500</v>
+        <v>1334100</v>
       </c>
       <c r="K61" s="3">
         <v>1429700</v>
@@ -3282,19 +3282,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11800</v>
+        <v>61900</v>
       </c>
       <c r="E62" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="F62" s="3">
-        <v>32000</v>
+        <v>32700</v>
       </c>
       <c r="G62" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="H62" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1293100</v>
+        <v>1324900</v>
       </c>
       <c r="E66" s="3">
-        <v>1264400</v>
+        <v>1291100</v>
       </c>
       <c r="F66" s="3">
-        <v>1295900</v>
+        <v>1323300</v>
       </c>
       <c r="G66" s="3">
-        <v>1345400</v>
+        <v>1373800</v>
       </c>
       <c r="H66" s="3">
-        <v>1440400</v>
+        <v>1470800</v>
       </c>
       <c r="I66" s="3">
-        <v>1495600</v>
+        <v>1527300</v>
       </c>
       <c r="J66" s="3">
-        <v>1876700</v>
+        <v>1916400</v>
       </c>
       <c r="K66" s="3">
         <v>2119700</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>421500</v>
+        <v>430500</v>
       </c>
       <c r="E72" s="3">
-        <v>405500</v>
+        <v>414000</v>
       </c>
       <c r="F72" s="3">
-        <v>397800</v>
+        <v>406200</v>
       </c>
       <c r="G72" s="3">
-        <v>393900</v>
+        <v>402300</v>
       </c>
       <c r="H72" s="3">
-        <v>406700</v>
+        <v>415300</v>
       </c>
       <c r="I72" s="3">
-        <v>397400</v>
+        <v>405800</v>
       </c>
       <c r="J72" s="3">
-        <v>370300</v>
+        <v>378100</v>
       </c>
       <c r="K72" s="3">
         <v>344300</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>571600</v>
+        <v>583700</v>
       </c>
       <c r="E76" s="3">
-        <v>555100</v>
+        <v>566800</v>
       </c>
       <c r="F76" s="3">
-        <v>546300</v>
+        <v>557900</v>
       </c>
       <c r="G76" s="3">
-        <v>540100</v>
+        <v>551500</v>
       </c>
       <c r="H76" s="3">
-        <v>549800</v>
+        <v>561400</v>
       </c>
       <c r="I76" s="3">
-        <v>540500</v>
+        <v>552000</v>
       </c>
       <c r="J76" s="3">
-        <v>511900</v>
+        <v>522700</v>
       </c>
       <c r="K76" s="3">
         <v>483500</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="E81" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="F81" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G81" s="3">
-        <v>-10000</v>
+        <v>-10300</v>
       </c>
       <c r="H81" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I81" s="3">
-        <v>27100</v>
+        <v>27700</v>
       </c>
       <c r="J81" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="K81" s="3">
         <v>20600</v>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74500</v>
+        <v>73500</v>
       </c>
       <c r="E8" s="3">
-        <v>81200</v>
+        <v>73500</v>
       </c>
       <c r="F8" s="3">
-        <v>78400</v>
+        <v>80200</v>
       </c>
       <c r="G8" s="3">
-        <v>83300</v>
+        <v>77300</v>
       </c>
       <c r="H8" s="3">
-        <v>93600</v>
+        <v>82300</v>
       </c>
       <c r="I8" s="3">
-        <v>118400</v>
+        <v>92300</v>
       </c>
       <c r="J8" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K8" s="3">
         <v>129500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>148400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>156200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>154400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>153100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>159700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>139300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>115800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="E9" s="3">
-        <v>46300</v>
+        <v>40600</v>
       </c>
       <c r="F9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44800</v>
+      </c>
+      <c r="H9" s="3">
         <v>45400</v>
       </c>
-      <c r="G9" s="3">
-        <v>46000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>48800</v>
-      </c>
       <c r="I9" s="3">
-        <v>54900</v>
+        <v>48100</v>
       </c>
       <c r="J9" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K9" s="3">
         <v>62500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>73000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>67000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>69700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>60000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>33300</v>
+        <v>34300</v>
       </c>
       <c r="E10" s="3">
-        <v>34900</v>
+        <v>32900</v>
       </c>
       <c r="F10" s="3">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="G10" s="3">
-        <v>37300</v>
+        <v>32600</v>
       </c>
       <c r="H10" s="3">
-        <v>44800</v>
+        <v>36800</v>
       </c>
       <c r="I10" s="3">
-        <v>63500</v>
+        <v>44200</v>
       </c>
       <c r="J10" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K10" s="3">
         <v>67000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>74800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>80100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>86000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>90100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>79300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>69900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54300</v>
+        <v>55800</v>
       </c>
       <c r="E17" s="3">
-        <v>69500</v>
+        <v>53600</v>
       </c>
       <c r="F17" s="3">
-        <v>72000</v>
+        <v>68600</v>
       </c>
       <c r="G17" s="3">
-        <v>96200</v>
+        <v>71100</v>
       </c>
       <c r="H17" s="3">
-        <v>80400</v>
+        <v>94900</v>
       </c>
       <c r="I17" s="3">
-        <v>81100</v>
+        <v>79400</v>
       </c>
       <c r="J17" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K17" s="3">
         <v>95700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>110900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>111700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>111800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>113500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>121900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>87900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20200</v>
+        <v>17700</v>
       </c>
       <c r="E18" s="3">
-        <v>11700</v>
+        <v>19900</v>
       </c>
       <c r="F18" s="3">
-        <v>6400</v>
+        <v>11500</v>
       </c>
       <c r="G18" s="3">
-        <v>-12800</v>
+        <v>6300</v>
       </c>
       <c r="H18" s="3">
-        <v>13100</v>
+        <v>-12700</v>
       </c>
       <c r="I18" s="3">
-        <v>37300</v>
+        <v>13000</v>
       </c>
       <c r="J18" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K18" s="3">
         <v>33800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>44400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>44700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>39600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>37800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,32 +1398,35 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>38700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>45600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>39400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>28600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20200</v>
+        <v>17700</v>
       </c>
       <c r="E23" s="3">
-        <v>11700</v>
+        <v>19900</v>
       </c>
       <c r="F23" s="3">
-        <v>6400</v>
+        <v>11500</v>
       </c>
       <c r="G23" s="3">
-        <v>-12800</v>
+        <v>6300</v>
       </c>
       <c r="H23" s="3">
-        <v>13100</v>
+        <v>-12700</v>
       </c>
       <c r="I23" s="3">
-        <v>37300</v>
+        <v>12900</v>
       </c>
       <c r="J23" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K23" s="3">
         <v>33800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-2600</v>
-      </c>
       <c r="H24" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
-        <v>9700</v>
-      </c>
       <c r="J24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>16400</v>
+        <v>13200</v>
       </c>
       <c r="E26" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="F26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H26" s="3">
-        <v>9500</v>
+        <v>-10100</v>
       </c>
       <c r="I26" s="3">
-        <v>27700</v>
+        <v>9400</v>
       </c>
       <c r="J26" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K26" s="3">
         <v>25100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>34600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16400</v>
+        <v>13200</v>
       </c>
       <c r="E27" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="F27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H27" s="3">
-        <v>9500</v>
+        <v>-10100</v>
       </c>
       <c r="I27" s="3">
-        <v>27700</v>
+        <v>9400</v>
       </c>
       <c r="J27" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K27" s="3">
         <v>25100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16400</v>
+        <v>13200</v>
       </c>
       <c r="E33" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="F33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H33" s="3">
-        <v>9500</v>
+        <v>-10100</v>
       </c>
       <c r="I33" s="3">
-        <v>27700</v>
+        <v>9400</v>
       </c>
       <c r="J33" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K33" s="3">
         <v>25100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>32900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16400</v>
+        <v>13200</v>
       </c>
       <c r="E35" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="F35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H35" s="3">
-        <v>9500</v>
+        <v>-10100</v>
       </c>
       <c r="I35" s="3">
-        <v>27700</v>
+        <v>9400</v>
       </c>
       <c r="J35" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K35" s="3">
         <v>25100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>32900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2313,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305900</v>
+        <v>342400</v>
       </c>
       <c r="E41" s="3">
-        <v>263100</v>
+        <v>301900</v>
       </c>
       <c r="F41" s="3">
-        <v>301700</v>
+        <v>259700</v>
       </c>
       <c r="G41" s="3">
-        <v>259200</v>
+        <v>297800</v>
       </c>
       <c r="H41" s="3">
-        <v>266100</v>
+        <v>255900</v>
       </c>
       <c r="I41" s="3">
-        <v>239800</v>
+        <v>262600</v>
       </c>
       <c r="J41" s="3">
+        <v>236700</v>
+      </c>
+      <c r="K41" s="3">
         <v>296100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>298200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>459200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>239600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>353300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,47 +2647,50 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1491700</v>
+        <v>1579200</v>
       </c>
       <c r="E47" s="3">
-        <v>1485500</v>
+        <v>1472300</v>
       </c>
       <c r="F47" s="3">
-        <v>1499800</v>
+        <v>1466200</v>
       </c>
       <c r="G47" s="3">
-        <v>1609500</v>
+        <v>1480300</v>
       </c>
       <c r="H47" s="3">
-        <v>1723300</v>
+        <v>1588500</v>
       </c>
       <c r="I47" s="3">
-        <v>1777400</v>
+        <v>1700800</v>
       </c>
       <c r="J47" s="3">
+        <v>1754300</v>
+      </c>
+      <c r="K47" s="3">
         <v>2077200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2235500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2303200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2469600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2500700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2598,47 +2703,50 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="G48" s="3">
-        <v>5800</v>
-      </c>
       <c r="H48" s="3">
-        <v>7400</v>
+        <v>5700</v>
       </c>
       <c r="I48" s="3">
-        <v>8400</v>
+        <v>7300</v>
       </c>
       <c r="J48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2651,13 +2759,16 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2666,7 +2777,7 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
@@ -2684,13 +2795,13 @@
         <v>600</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>500</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +2927,50 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11800</v>
+        <v>13000</v>
       </c>
       <c r="E52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F52" s="3">
         <v>3700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
-        <v>2600</v>
-      </c>
       <c r="I52" s="3">
-        <v>41000</v>
+        <v>2500</v>
       </c>
       <c r="J52" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K52" s="3">
         <v>43000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1908500</v>
+        <v>2039200</v>
       </c>
       <c r="E54" s="3">
-        <v>1857900</v>
+        <v>1883700</v>
       </c>
       <c r="F54" s="3">
-        <v>1881100</v>
+        <v>1833700</v>
       </c>
       <c r="G54" s="3">
-        <v>1925300</v>
+        <v>1856600</v>
       </c>
       <c r="H54" s="3">
-        <v>2032200</v>
+        <v>1900300</v>
       </c>
       <c r="I54" s="3">
-        <v>2079200</v>
+        <v>2005800</v>
       </c>
       <c r="J54" s="3">
+        <v>2052200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2439100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2603200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2810900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2756600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2901400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,41 +3195,44 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>79300</v>
+        <v>54700</v>
       </c>
       <c r="E58" s="3">
-        <v>118400</v>
+        <v>78300</v>
       </c>
       <c r="F58" s="3">
-        <v>151600</v>
+        <v>116800</v>
       </c>
       <c r="G58" s="3">
-        <v>84000</v>
+        <v>149600</v>
       </c>
       <c r="H58" s="3">
-        <v>135900</v>
+        <v>82900</v>
       </c>
       <c r="I58" s="3">
-        <v>217600</v>
+        <v>134100</v>
       </c>
       <c r="J58" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K58" s="3">
         <v>340900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>496400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>612000</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3117,47 +3251,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31800</v>
+        <v>31000</v>
       </c>
       <c r="E59" s="3">
-        <v>58100</v>
+        <v>31400</v>
       </c>
       <c r="F59" s="3">
-        <v>47900</v>
+        <v>57300</v>
       </c>
       <c r="G59" s="3">
-        <v>27000</v>
+        <v>47300</v>
       </c>
       <c r="H59" s="3">
-        <v>33100</v>
+        <v>26700</v>
       </c>
       <c r="I59" s="3">
-        <v>126500</v>
+        <v>32700</v>
       </c>
       <c r="J59" s="3">
+        <v>124900</v>
+      </c>
+      <c r="K59" s="3">
         <v>126800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>124100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>92400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>88200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,47 +3363,50 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>881400</v>
+        <v>1030600</v>
       </c>
       <c r="E61" s="3">
-        <v>827600</v>
+        <v>869900</v>
       </c>
       <c r="F61" s="3">
-        <v>851700</v>
+        <v>816800</v>
       </c>
       <c r="G61" s="3">
-        <v>996200</v>
+        <v>840600</v>
       </c>
       <c r="H61" s="3">
-        <v>1037800</v>
+        <v>983300</v>
       </c>
       <c r="I61" s="3">
-        <v>1028100</v>
+        <v>1024300</v>
       </c>
       <c r="J61" s="3">
+        <v>1014700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1334100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1429700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1613600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1710400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1789000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,31 +3419,34 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="E62" s="3">
-        <v>26000</v>
+        <v>61100</v>
       </c>
       <c r="F62" s="3">
-        <v>32700</v>
+        <v>25600</v>
       </c>
       <c r="G62" s="3">
-        <v>52600</v>
+        <v>32300</v>
       </c>
       <c r="H62" s="3">
-        <v>56100</v>
+        <v>51900</v>
       </c>
       <c r="I62" s="3">
+        <v>55300</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3312,11 +3458,11 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
+        <v>200</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3643,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1324900</v>
+        <v>1448700</v>
       </c>
       <c r="E66" s="3">
-        <v>1291100</v>
+        <v>1307600</v>
       </c>
       <c r="F66" s="3">
-        <v>1323300</v>
+        <v>1274300</v>
       </c>
       <c r="G66" s="3">
-        <v>1373800</v>
+        <v>1306000</v>
       </c>
       <c r="H66" s="3">
-        <v>1470800</v>
+        <v>1355900</v>
       </c>
       <c r="I66" s="3">
-        <v>1527300</v>
+        <v>1451700</v>
       </c>
       <c r="J66" s="3">
+        <v>1507400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1916400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2119700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2368600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2401800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2572900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +3945,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>430500</v>
+        <v>438000</v>
       </c>
       <c r="E72" s="3">
-        <v>414000</v>
+        <v>424900</v>
       </c>
       <c r="F72" s="3">
-        <v>406200</v>
+        <v>408600</v>
       </c>
       <c r="G72" s="3">
-        <v>402300</v>
+        <v>400900</v>
       </c>
       <c r="H72" s="3">
-        <v>415300</v>
+        <v>397000</v>
       </c>
       <c r="I72" s="3">
-        <v>405800</v>
+        <v>409900</v>
       </c>
       <c r="J72" s="3">
+        <v>400500</v>
+      </c>
+      <c r="K72" s="3">
         <v>378100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>344300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>309000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>271400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>244600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4169,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>583700</v>
+        <v>590400</v>
       </c>
       <c r="E76" s="3">
-        <v>566800</v>
+        <v>576100</v>
       </c>
       <c r="F76" s="3">
-        <v>557900</v>
+        <v>559400</v>
       </c>
       <c r="G76" s="3">
-        <v>551500</v>
+        <v>550600</v>
       </c>
       <c r="H76" s="3">
-        <v>561400</v>
+        <v>544300</v>
       </c>
       <c r="I76" s="3">
-        <v>552000</v>
+        <v>554100</v>
       </c>
       <c r="J76" s="3">
+        <v>544800</v>
+      </c>
+      <c r="K76" s="3">
         <v>522700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>483500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>442300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>354800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>328500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16400</v>
+        <v>13200</v>
       </c>
       <c r="E81" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="F81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-10300</v>
-      </c>
       <c r="H81" s="3">
-        <v>9500</v>
+        <v>-10100</v>
       </c>
       <c r="I81" s="3">
-        <v>27700</v>
+        <v>9400</v>
       </c>
       <c r="J81" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K81" s="3">
         <v>25100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>32900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>73500</v>
+        <v>73900</v>
       </c>
       <c r="E8" s="3">
-        <v>73500</v>
+        <v>74700</v>
       </c>
       <c r="F8" s="3">
-        <v>80200</v>
+        <v>74700</v>
       </c>
       <c r="G8" s="3">
-        <v>77300</v>
+        <v>74700</v>
       </c>
       <c r="H8" s="3">
-        <v>82300</v>
+        <v>81500</v>
       </c>
       <c r="I8" s="3">
+        <v>78600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K8" s="3">
         <v>92300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>116900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>129500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>138400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>148400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>156200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>154400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>153100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>159700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>139300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>115800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39200</v>
+        <v>50200</v>
       </c>
       <c r="E9" s="3">
-        <v>40600</v>
+        <v>47200</v>
       </c>
       <c r="F9" s="3">
-        <v>45700</v>
+        <v>39800</v>
       </c>
       <c r="G9" s="3">
-        <v>44800</v>
+        <v>41300</v>
       </c>
       <c r="H9" s="3">
-        <v>45400</v>
+        <v>46500</v>
       </c>
       <c r="I9" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K9" s="3">
         <v>48100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>54200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>62500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>63700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>68300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>73000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>69500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>67000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>69700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>60000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>45900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34300</v>
+        <v>23700</v>
       </c>
       <c r="E10" s="3">
-        <v>32900</v>
+        <v>27500</v>
       </c>
       <c r="F10" s="3">
-        <v>34500</v>
+        <v>34900</v>
       </c>
       <c r="G10" s="3">
-        <v>32600</v>
+        <v>33400</v>
       </c>
       <c r="H10" s="3">
-        <v>36800</v>
+        <v>35000</v>
       </c>
       <c r="I10" s="3">
+        <v>33100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K10" s="3">
         <v>44200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>62600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>67000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>74800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>80100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>83200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>85000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>86000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>90100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>79300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>69900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>55800</v>
+        <v>69900</v>
       </c>
       <c r="E17" s="3">
-        <v>53600</v>
+        <v>63200</v>
       </c>
       <c r="F17" s="3">
-        <v>68600</v>
+        <v>56700</v>
       </c>
       <c r="G17" s="3">
-        <v>71100</v>
+        <v>54500</v>
       </c>
       <c r="H17" s="3">
-        <v>94900</v>
+        <v>69800</v>
       </c>
       <c r="I17" s="3">
+        <v>72300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>96500</v>
+      </c>
+      <c r="K17" s="3">
         <v>79400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>80000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>95700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>110900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>111700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>111800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>109800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>113500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>121900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>109900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>87900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17700</v>
+        <v>4000</v>
       </c>
       <c r="E18" s="3">
-        <v>19900</v>
+        <v>11500</v>
       </c>
       <c r="F18" s="3">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="G18" s="3">
-        <v>6300</v>
+        <v>20300</v>
       </c>
       <c r="H18" s="3">
-        <v>-12700</v>
+        <v>11700</v>
       </c>
       <c r="I18" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>36800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>33800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>27600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>36800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>44400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>44700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>39600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>37800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>29400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>27900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,32 +1475,38 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>38700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>45600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>39400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>28600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1561,138 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17700</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="3">
-        <v>19900</v>
+        <v>11500</v>
       </c>
       <c r="F23" s="3">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="G23" s="3">
-        <v>6300</v>
+        <v>20300</v>
       </c>
       <c r="H23" s="3">
-        <v>-12700</v>
+        <v>11700</v>
       </c>
       <c r="I23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K23" s="3">
         <v>12900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>36800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>33800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>27600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>36800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>44700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>39600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>37800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>29400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>27900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>3700</v>
+        <v>1300</v>
       </c>
       <c r="F24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="H24" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>9500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>9400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>11700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>12400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>8500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13200</v>
+        <v>3000</v>
       </c>
       <c r="E26" s="3">
-        <v>16200</v>
+        <v>10200</v>
       </c>
       <c r="F26" s="3">
-        <v>7700</v>
+        <v>13400</v>
       </c>
       <c r="G26" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K26" s="3">
         <v>9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>27300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>25100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>20600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>27300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>32900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>34600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>28200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>26100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>17000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>19400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13200</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="3">
-        <v>16200</v>
+        <v>10200</v>
       </c>
       <c r="F27" s="3">
-        <v>7700</v>
+        <v>13400</v>
       </c>
       <c r="G27" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K27" s="3">
         <v>9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>27300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>25100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>20600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>27300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>32900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>34600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>28200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>26100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>19400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13200</v>
+        <v>3000</v>
       </c>
       <c r="E33" s="3">
-        <v>16200</v>
+        <v>10200</v>
       </c>
       <c r="F33" s="3">
-        <v>7700</v>
+        <v>13400</v>
       </c>
       <c r="G33" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K33" s="3">
         <v>9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>27300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>25100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>20600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>27300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>32900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>34600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>28200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>26100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>17000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>19400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13200</v>
+        <v>3000</v>
       </c>
       <c r="E35" s="3">
-        <v>16200</v>
+        <v>10200</v>
       </c>
       <c r="F35" s="3">
-        <v>7700</v>
+        <v>13400</v>
       </c>
       <c r="G35" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K35" s="3">
         <v>9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>27300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>25100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>20600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>27300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>32900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>34600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>28200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>26100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>17000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>19400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2486,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>342400</v>
+        <v>307500</v>
       </c>
       <c r="E41" s="3">
-        <v>301900</v>
+        <v>254800</v>
       </c>
       <c r="F41" s="3">
-        <v>259700</v>
+        <v>348100</v>
       </c>
       <c r="G41" s="3">
-        <v>297800</v>
+        <v>307000</v>
       </c>
       <c r="H41" s="3">
-        <v>255900</v>
+        <v>264100</v>
       </c>
       <c r="I41" s="3">
+        <v>302700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>260100</v>
+      </c>
+      <c r="K41" s="3">
         <v>262600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>236700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>296100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>298200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>459200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>239600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>353300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2544,14 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,53 +2854,59 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1579200</v>
+        <v>1889500</v>
       </c>
       <c r="E47" s="3">
-        <v>1472300</v>
+        <v>1876700</v>
       </c>
       <c r="F47" s="3">
-        <v>1466200</v>
+        <v>1605600</v>
       </c>
       <c r="G47" s="3">
-        <v>1480300</v>
+        <v>1497000</v>
       </c>
       <c r="H47" s="3">
-        <v>1588500</v>
+        <v>1490700</v>
       </c>
       <c r="I47" s="3">
+        <v>1505100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1615100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1700800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1754300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2077200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2235500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2303200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2469600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2500700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2706,53 +2916,59 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="E48" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4900</v>
       </c>
-      <c r="H48" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>15200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,19 +2993,19 @@
         <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3">
         <v>600</v>
@@ -2798,17 +3020,17 @@
         <v>600</v>
       </c>
       <c r="N49" s="3">
+        <v>600</v>
+      </c>
+      <c r="O49" s="3">
+        <v>600</v>
+      </c>
+      <c r="P49" s="3">
         <v>500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3164,59 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>11700</v>
+        <v>14700</v>
       </c>
       <c r="F52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>40500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>43000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>39300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>31600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>26300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>23900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3288,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2039200</v>
+        <v>2337500</v>
       </c>
       <c r="E54" s="3">
-        <v>1883700</v>
+        <v>2257500</v>
       </c>
       <c r="F54" s="3">
-        <v>1833700</v>
+        <v>2073300</v>
       </c>
       <c r="G54" s="3">
-        <v>1856600</v>
+        <v>1915300</v>
       </c>
       <c r="H54" s="3">
-        <v>1900300</v>
+        <v>1864500</v>
       </c>
       <c r="I54" s="3">
+        <v>1887700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1932100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2005800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2052200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2439100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2603200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2810900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2756600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2901400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,47 +3460,53 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>54700</v>
+        <v>47100</v>
       </c>
       <c r="E58" s="3">
-        <v>78300</v>
+        <v>52800</v>
       </c>
       <c r="F58" s="3">
-        <v>116800</v>
+        <v>55600</v>
       </c>
       <c r="G58" s="3">
-        <v>149600</v>
+        <v>79600</v>
       </c>
       <c r="H58" s="3">
-        <v>82900</v>
+        <v>118800</v>
       </c>
       <c r="I58" s="3">
+        <v>152100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K58" s="3">
         <v>134100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>214700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>340900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>496400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>612000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
@@ -3254,53 +3522,59 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31000</v>
+        <v>35700</v>
       </c>
       <c r="E59" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="F59" s="3">
-        <v>57300</v>
+        <v>31500</v>
       </c>
       <c r="G59" s="3">
-        <v>47300</v>
+        <v>31900</v>
       </c>
       <c r="H59" s="3">
-        <v>26700</v>
+        <v>58300</v>
       </c>
       <c r="I59" s="3">
+        <v>48100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K59" s="3">
         <v>32700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>124900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>126800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>124100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>106200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>92400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>88200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,8 +3584,14 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,53 +3646,59 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1030600</v>
+        <v>1307100</v>
       </c>
       <c r="E61" s="3">
-        <v>869900</v>
+        <v>1201800</v>
       </c>
       <c r="F61" s="3">
-        <v>816800</v>
+        <v>1047800</v>
       </c>
       <c r="G61" s="3">
-        <v>840600</v>
+        <v>884500</v>
       </c>
       <c r="H61" s="3">
-        <v>983300</v>
+        <v>830500</v>
       </c>
       <c r="I61" s="3">
+        <v>854700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>999700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1024300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1014700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1334100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1429700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1613600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1710400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1789000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,37 +3708,43 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59700</v>
+        <v>33000</v>
       </c>
       <c r="E62" s="3">
-        <v>61100</v>
+        <v>57200</v>
       </c>
       <c r="F62" s="3">
-        <v>25600</v>
+        <v>60700</v>
       </c>
       <c r="G62" s="3">
-        <v>32300</v>
+        <v>62100</v>
       </c>
       <c r="H62" s="3">
-        <v>51900</v>
+        <v>26100</v>
       </c>
       <c r="I62" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K62" s="3">
         <v>55300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -3461,14 +3753,14 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3956,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1448700</v>
+        <v>1723200</v>
       </c>
       <c r="E66" s="3">
-        <v>1307600</v>
+        <v>1647100</v>
       </c>
       <c r="F66" s="3">
-        <v>1274300</v>
+        <v>1473000</v>
       </c>
       <c r="G66" s="3">
-        <v>1306000</v>
+        <v>1329500</v>
       </c>
       <c r="H66" s="3">
-        <v>1355900</v>
+        <v>1295700</v>
       </c>
       <c r="I66" s="3">
+        <v>1327900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1378700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1451700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1507400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1916400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2119700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2368600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2401800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2572900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4290,59 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>438000</v>
+        <v>458600</v>
       </c>
       <c r="E72" s="3">
-        <v>424900</v>
+        <v>455600</v>
       </c>
       <c r="F72" s="3">
-        <v>408600</v>
+        <v>445400</v>
       </c>
       <c r="G72" s="3">
-        <v>400900</v>
+        <v>432000</v>
       </c>
       <c r="H72" s="3">
-        <v>397000</v>
+        <v>415500</v>
       </c>
       <c r="I72" s="3">
+        <v>407600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>403700</v>
+      </c>
+      <c r="K72" s="3">
         <v>409900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>400500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>378100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>344300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>309000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>271400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>244600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4538,59 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>590400</v>
+        <v>614300</v>
       </c>
       <c r="E76" s="3">
-        <v>576100</v>
+        <v>610400</v>
       </c>
       <c r="F76" s="3">
-        <v>559400</v>
+        <v>600300</v>
       </c>
       <c r="G76" s="3">
-        <v>550600</v>
+        <v>585700</v>
       </c>
       <c r="H76" s="3">
-        <v>544300</v>
+        <v>568800</v>
       </c>
       <c r="I76" s="3">
+        <v>559800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>553400</v>
+      </c>
+      <c r="K76" s="3">
         <v>554100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>544800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>522700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>483500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>442300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>354800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>328500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13200</v>
+        <v>3000</v>
       </c>
       <c r="E81" s="3">
-        <v>16200</v>
+        <v>10200</v>
       </c>
       <c r="F81" s="3">
-        <v>7700</v>
+        <v>13400</v>
       </c>
       <c r="G81" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K81" s="3">
         <v>9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>27300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>25100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>20600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>27300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>32900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>34600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>28200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>26100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>17000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>19400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>73900</v>
+        <v>74400</v>
       </c>
       <c r="E8" s="3">
-        <v>74700</v>
+        <v>75300</v>
       </c>
       <c r="F8" s="3">
-        <v>74700</v>
+        <v>75300</v>
       </c>
       <c r="G8" s="3">
-        <v>74700</v>
+        <v>75300</v>
       </c>
       <c r="H8" s="3">
-        <v>81500</v>
+        <v>82100</v>
       </c>
       <c r="I8" s="3">
-        <v>78600</v>
+        <v>79200</v>
       </c>
       <c r="J8" s="3">
-        <v>83600</v>
+        <v>84300</v>
       </c>
       <c r="K8" s="3">
         <v>92300</v>
@@ -822,25 +822,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="E9" s="3">
-        <v>47200</v>
+        <v>47600</v>
       </c>
       <c r="F9" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="G9" s="3">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="H9" s="3">
-        <v>46500</v>
+        <v>46800</v>
       </c>
       <c r="I9" s="3">
-        <v>45500</v>
+        <v>45900</v>
       </c>
       <c r="J9" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="K9" s="3">
         <v>48100</v>
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="E10" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="F10" s="3">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="G10" s="3">
+        <v>33700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>35300</v>
+      </c>
+      <c r="I10" s="3">
         <v>33400</v>
       </c>
-      <c r="H10" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>33100</v>
-      </c>
       <c r="J10" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="K10" s="3">
         <v>44200</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>69900</v>
+        <v>70400</v>
       </c>
       <c r="E17" s="3">
-        <v>63200</v>
+        <v>63700</v>
       </c>
       <c r="F17" s="3">
-        <v>56700</v>
+        <v>57200</v>
       </c>
       <c r="G17" s="3">
-        <v>54500</v>
+        <v>54900</v>
       </c>
       <c r="H17" s="3">
-        <v>69800</v>
+        <v>70300</v>
       </c>
       <c r="I17" s="3">
-        <v>72300</v>
+        <v>72800</v>
       </c>
       <c r="J17" s="3">
-        <v>96500</v>
+        <v>97300</v>
       </c>
       <c r="K17" s="3">
         <v>79400</v>
@@ -1304,22 +1304,22 @@
         <v>4000</v>
       </c>
       <c r="E18" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="F18" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="G18" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="H18" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I18" s="3">
         <v>6400</v>
       </c>
       <c r="J18" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="K18" s="3">
         <v>13000</v>
@@ -1576,22 +1576,22 @@
         <v>4000</v>
       </c>
       <c r="E23" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="F23" s="3">
-        <v>18000</v>
+        <v>18100</v>
       </c>
       <c r="G23" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="H23" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I23" s="3">
         <v>6400</v>
       </c>
       <c r="J23" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="K23" s="3">
         <v>12900</v>
@@ -1650,7 +1650,7 @@
         <v>3900</v>
       </c>
       <c r="I24" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J24" s="3">
         <v>-2600</v>
@@ -1762,22 +1762,22 @@
         <v>3000</v>
       </c>
       <c r="E26" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F26" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G26" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="H26" s="3">
         <v>7900</v>
       </c>
       <c r="I26" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J26" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K26" s="3">
         <v>9400</v>
@@ -1824,22 +1824,22 @@
         <v>3000</v>
       </c>
       <c r="E27" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F27" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G27" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="H27" s="3">
         <v>7900</v>
       </c>
       <c r="I27" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J27" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K27" s="3">
         <v>9400</v>
@@ -2196,22 +2196,22 @@
         <v>3000</v>
       </c>
       <c r="E33" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F33" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G33" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="H33" s="3">
         <v>7900</v>
       </c>
       <c r="I33" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J33" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K33" s="3">
         <v>9400</v>
@@ -2320,22 +2320,22 @@
         <v>3000</v>
       </c>
       <c r="E35" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F35" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G35" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="H35" s="3">
         <v>7900</v>
       </c>
       <c r="I35" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J35" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K35" s="3">
         <v>9400</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>307500</v>
+        <v>309900</v>
       </c>
       <c r="E41" s="3">
-        <v>254800</v>
+        <v>256700</v>
       </c>
       <c r="F41" s="3">
-        <v>348100</v>
+        <v>350800</v>
       </c>
       <c r="G41" s="3">
-        <v>307000</v>
+        <v>309400</v>
       </c>
       <c r="H41" s="3">
-        <v>264100</v>
+        <v>266100</v>
       </c>
       <c r="I41" s="3">
-        <v>302700</v>
+        <v>305100</v>
       </c>
       <c r="J41" s="3">
-        <v>260100</v>
+        <v>262100</v>
       </c>
       <c r="K41" s="3">
         <v>262600</v>
@@ -2866,25 +2866,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1889500</v>
+        <v>1904000</v>
       </c>
       <c r="E47" s="3">
-        <v>1876700</v>
+        <v>1891100</v>
       </c>
       <c r="F47" s="3">
-        <v>1605600</v>
+        <v>1617900</v>
       </c>
       <c r="G47" s="3">
-        <v>1497000</v>
+        <v>1508400</v>
       </c>
       <c r="H47" s="3">
-        <v>1490700</v>
+        <v>1502100</v>
       </c>
       <c r="I47" s="3">
-        <v>1505100</v>
+        <v>1516600</v>
       </c>
       <c r="J47" s="3">
-        <v>1615100</v>
+        <v>1627500</v>
       </c>
       <c r="K47" s="3">
         <v>1700800</v>
@@ -2940,13 +2940,13 @@
         <v>3800</v>
       </c>
       <c r="H48" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I48" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K48" s="3">
         <v>7300</v>
@@ -3005,7 +3005,7 @@
         <v>500</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>600</v>
@@ -3179,16 +3179,16 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="F52" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="G52" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="H52" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I52" s="3">
         <v>3200</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2337500</v>
+        <v>2355400</v>
       </c>
       <c r="E54" s="3">
-        <v>2257500</v>
+        <v>2274800</v>
       </c>
       <c r="F54" s="3">
-        <v>2073300</v>
+        <v>2089200</v>
       </c>
       <c r="G54" s="3">
-        <v>1915300</v>
+        <v>1930000</v>
       </c>
       <c r="H54" s="3">
-        <v>1864500</v>
+        <v>1878800</v>
       </c>
       <c r="I54" s="3">
-        <v>1887700</v>
+        <v>1902200</v>
       </c>
       <c r="J54" s="3">
-        <v>1932100</v>
+        <v>1946900</v>
       </c>
       <c r="K54" s="3">
         <v>2005800</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47100</v>
+        <v>47400</v>
       </c>
       <c r="E58" s="3">
-        <v>52800</v>
+        <v>53200</v>
       </c>
       <c r="F58" s="3">
-        <v>55600</v>
+        <v>56100</v>
       </c>
       <c r="G58" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="H58" s="3">
-        <v>118800</v>
+        <v>119700</v>
       </c>
       <c r="I58" s="3">
-        <v>152100</v>
+        <v>153300</v>
       </c>
       <c r="J58" s="3">
-        <v>84300</v>
+        <v>85000</v>
       </c>
       <c r="K58" s="3">
         <v>134100</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="E59" s="3">
-        <v>30400</v>
+        <v>30600</v>
       </c>
       <c r="F59" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="G59" s="3">
-        <v>31900</v>
+        <v>32200</v>
       </c>
       <c r="H59" s="3">
-        <v>58300</v>
+        <v>58700</v>
       </c>
       <c r="I59" s="3">
-        <v>48100</v>
+        <v>48500</v>
       </c>
       <c r="J59" s="3">
-        <v>27100</v>
+        <v>27300</v>
       </c>
       <c r="K59" s="3">
         <v>32700</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1307100</v>
+        <v>1317100</v>
       </c>
       <c r="E61" s="3">
-        <v>1201800</v>
+        <v>1211100</v>
       </c>
       <c r="F61" s="3">
-        <v>1047800</v>
+        <v>1055900</v>
       </c>
       <c r="G61" s="3">
-        <v>884500</v>
+        <v>891300</v>
       </c>
       <c r="H61" s="3">
-        <v>830500</v>
+        <v>836900</v>
       </c>
       <c r="I61" s="3">
-        <v>854700</v>
+        <v>861200</v>
       </c>
       <c r="J61" s="3">
-        <v>999700</v>
+        <v>1007400</v>
       </c>
       <c r="K61" s="3">
         <v>1024300</v>
@@ -3720,25 +3720,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="E62" s="3">
-        <v>57200</v>
+        <v>57700</v>
       </c>
       <c r="F62" s="3">
-        <v>60700</v>
+        <v>61100</v>
       </c>
       <c r="G62" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="H62" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="I62" s="3">
-        <v>32800</v>
+        <v>33100</v>
       </c>
       <c r="J62" s="3">
-        <v>52800</v>
+        <v>53200</v>
       </c>
       <c r="K62" s="3">
         <v>55300</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1723200</v>
+        <v>1736400</v>
       </c>
       <c r="E66" s="3">
-        <v>1647100</v>
+        <v>1659700</v>
       </c>
       <c r="F66" s="3">
-        <v>1473000</v>
+        <v>1484300</v>
       </c>
       <c r="G66" s="3">
-        <v>1329500</v>
+        <v>1339700</v>
       </c>
       <c r="H66" s="3">
-        <v>1295700</v>
+        <v>1305600</v>
       </c>
       <c r="I66" s="3">
-        <v>1327900</v>
+        <v>1338100</v>
       </c>
       <c r="J66" s="3">
-        <v>1378700</v>
+        <v>1389200</v>
       </c>
       <c r="K66" s="3">
         <v>1451700</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>458600</v>
+        <v>462100</v>
       </c>
       <c r="E72" s="3">
-        <v>455600</v>
+        <v>459100</v>
       </c>
       <c r="F72" s="3">
-        <v>445400</v>
+        <v>448800</v>
       </c>
       <c r="G72" s="3">
-        <v>432000</v>
+        <v>435300</v>
       </c>
       <c r="H72" s="3">
-        <v>415500</v>
+        <v>418700</v>
       </c>
       <c r="I72" s="3">
-        <v>407600</v>
+        <v>410800</v>
       </c>
       <c r="J72" s="3">
-        <v>403700</v>
+        <v>406800</v>
       </c>
       <c r="K72" s="3">
         <v>409900</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>614300</v>
+        <v>619000</v>
       </c>
       <c r="E76" s="3">
-        <v>610400</v>
+        <v>615100</v>
       </c>
       <c r="F76" s="3">
-        <v>600300</v>
+        <v>604900</v>
       </c>
       <c r="G76" s="3">
-        <v>585700</v>
+        <v>590200</v>
       </c>
       <c r="H76" s="3">
-        <v>568800</v>
+        <v>573100</v>
       </c>
       <c r="I76" s="3">
-        <v>559800</v>
+        <v>564100</v>
       </c>
       <c r="J76" s="3">
-        <v>553400</v>
+        <v>557700</v>
       </c>
       <c r="K76" s="3">
         <v>554100</v>
@@ -4744,22 +4744,22 @@
         <v>3000</v>
       </c>
       <c r="E81" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F81" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="G81" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="H81" s="3">
         <v>7900</v>
       </c>
       <c r="I81" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J81" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="K81" s="3">
         <v>9400</v>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74400</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
-        <v>75300</v>
+        <v>69500</v>
       </c>
       <c r="F8" s="3">
-        <v>75300</v>
+        <v>70300</v>
       </c>
       <c r="G8" s="3">
-        <v>75300</v>
+        <v>70300</v>
       </c>
       <c r="H8" s="3">
-        <v>82100</v>
+        <v>70300</v>
       </c>
       <c r="I8" s="3">
-        <v>79200</v>
+        <v>76700</v>
       </c>
       <c r="J8" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K8" s="3">
         <v>84300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>92300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>116900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>129500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>138400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>148400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>156200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>154400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>153100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>159700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>139300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>115800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50600</v>
+        <v>47800</v>
       </c>
       <c r="E9" s="3">
-        <v>47600</v>
+        <v>47300</v>
       </c>
       <c r="F9" s="3">
-        <v>40100</v>
+        <v>44500</v>
       </c>
       <c r="G9" s="3">
-        <v>41600</v>
+        <v>37500</v>
       </c>
       <c r="H9" s="3">
-        <v>46800</v>
+        <v>38900</v>
       </c>
       <c r="I9" s="3">
+        <v>43700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K9" s="3">
+        <v>46600</v>
+      </c>
+      <c r="L9" s="3">
+        <v>48100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>54200</v>
+      </c>
+      <c r="N9" s="3">
+        <v>62500</v>
+      </c>
+      <c r="O9" s="3">
+        <v>63700</v>
+      </c>
+      <c r="P9" s="3">
+        <v>68300</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>73000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>69500</v>
+      </c>
+      <c r="S9" s="3">
+        <v>67000</v>
+      </c>
+      <c r="T9" s="3">
+        <v>69700</v>
+      </c>
+      <c r="U9" s="3">
+        <v>60000</v>
+      </c>
+      <c r="V9" s="3">
         <v>45900</v>
       </c>
-      <c r="J9" s="3">
-        <v>46600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>48100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>54200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>62500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>63700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>68300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>73000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>69500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>67000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>69700</v>
-      </c>
-      <c r="T9" s="3">
-        <v>60000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>45900</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23800</v>
+        <v>-47500</v>
       </c>
       <c r="E10" s="3">
-        <v>27700</v>
+        <v>22300</v>
       </c>
       <c r="F10" s="3">
-        <v>35100</v>
+        <v>25900</v>
       </c>
       <c r="G10" s="3">
-        <v>33700</v>
+        <v>32800</v>
       </c>
       <c r="H10" s="3">
-        <v>35300</v>
+        <v>31500</v>
       </c>
       <c r="I10" s="3">
-        <v>33400</v>
+        <v>33000</v>
       </c>
       <c r="J10" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K10" s="3">
         <v>37700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>44200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>74800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>80100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>83200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>85000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>86000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>90100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>79300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>69900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>70400</v>
+        <v>18100</v>
       </c>
       <c r="E17" s="3">
-        <v>63700</v>
+        <v>65800</v>
       </c>
       <c r="F17" s="3">
-        <v>57200</v>
+        <v>59500</v>
       </c>
       <c r="G17" s="3">
-        <v>54900</v>
+        <v>53400</v>
       </c>
       <c r="H17" s="3">
-        <v>70300</v>
+        <v>51300</v>
       </c>
       <c r="I17" s="3">
-        <v>72800</v>
+        <v>65700</v>
       </c>
       <c r="J17" s="3">
+        <v>68000</v>
+      </c>
+      <c r="K17" s="3">
         <v>97300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>80000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>95700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>111700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>111800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>113500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>121900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>87900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4000</v>
+        <v>-17700</v>
       </c>
       <c r="E18" s="3">
-        <v>11600</v>
+        <v>3800</v>
       </c>
       <c r="F18" s="3">
-        <v>18100</v>
+        <v>10900</v>
       </c>
       <c r="G18" s="3">
-        <v>20400</v>
+        <v>16900</v>
       </c>
       <c r="H18" s="3">
-        <v>11800</v>
+        <v>19100</v>
       </c>
       <c r="I18" s="3">
-        <v>6400</v>
+        <v>11000</v>
       </c>
       <c r="J18" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>33800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>44400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>39600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>37800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>29400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>27900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,32 +1517,35 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>38700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>45600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>39400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>28600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4000</v>
+        <v>-17700</v>
       </c>
       <c r="E23" s="3">
-        <v>11600</v>
+        <v>3800</v>
       </c>
       <c r="F23" s="3">
-        <v>18100</v>
+        <v>10900</v>
       </c>
       <c r="G23" s="3">
-        <v>20400</v>
+        <v>16900</v>
       </c>
       <c r="H23" s="3">
-        <v>11800</v>
+        <v>19100</v>
       </c>
       <c r="I23" s="3">
-        <v>6400</v>
+        <v>11000</v>
       </c>
       <c r="J23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>36800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>29400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>1300</v>
-      </c>
       <c r="F24" s="3">
-        <v>4600</v>
+        <v>1200</v>
       </c>
       <c r="G24" s="3">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="H24" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="J24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3000</v>
+        <v>-15500</v>
       </c>
       <c r="E26" s="3">
-        <v>10300</v>
+        <v>2800</v>
       </c>
       <c r="F26" s="3">
-        <v>13500</v>
+        <v>9600</v>
       </c>
       <c r="G26" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>27300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>25100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>20600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>32900</v>
+      </c>
+      <c r="R26" s="3">
+        <v>34600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>28200</v>
+      </c>
+      <c r="T26" s="3">
+        <v>26100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V26" s="3">
+        <v>19400</v>
+      </c>
+      <c r="W26" s="3">
         <v>16600</v>
       </c>
-      <c r="H26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>27300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>25100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>20600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>27300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>32900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>34600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>28200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>26100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>17000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>19400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3000</v>
+        <v>-15500</v>
       </c>
       <c r="E27" s="3">
-        <v>10300</v>
+        <v>2800</v>
       </c>
       <c r="F27" s="3">
-        <v>13500</v>
+        <v>9600</v>
       </c>
       <c r="G27" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>27300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>25100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>20600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>32900</v>
+      </c>
+      <c r="R27" s="3">
+        <v>34600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>28200</v>
+      </c>
+      <c r="T27" s="3">
+        <v>26100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V27" s="3">
+        <v>19400</v>
+      </c>
+      <c r="W27" s="3">
         <v>16600</v>
       </c>
-      <c r="H27" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>27300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>25100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>20600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>27300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>32900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>34600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>28200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>26100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>17000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>19400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3000</v>
+        <v>-15500</v>
       </c>
       <c r="E33" s="3">
-        <v>10300</v>
+        <v>2800</v>
       </c>
       <c r="F33" s="3">
-        <v>13500</v>
+        <v>9600</v>
       </c>
       <c r="G33" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>27300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>25100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>20600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>32900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>34600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>28200</v>
+      </c>
+      <c r="T33" s="3">
+        <v>26100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V33" s="3">
+        <v>19400</v>
+      </c>
+      <c r="W33" s="3">
         <v>16600</v>
       </c>
-      <c r="H33" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>27300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>25100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>20600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>27300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>32900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>34600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>28200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>26100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>17000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>19400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3000</v>
+        <v>-15500</v>
       </c>
       <c r="E35" s="3">
-        <v>10300</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="3">
-        <v>13500</v>
+        <v>9600</v>
       </c>
       <c r="G35" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>27300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>25100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>20600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>32900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>34600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>28200</v>
+      </c>
+      <c r="T35" s="3">
+        <v>26100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V35" s="3">
+        <v>19400</v>
+      </c>
+      <c r="W35" s="3">
         <v>16600</v>
       </c>
-      <c r="H35" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>27300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>25100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>20600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>27300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>32900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>34600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>28200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>26100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>17000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>19400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>309900</v>
+        <v>328800</v>
       </c>
       <c r="E41" s="3">
-        <v>256700</v>
+        <v>289400</v>
       </c>
       <c r="F41" s="3">
-        <v>350800</v>
+        <v>239800</v>
       </c>
       <c r="G41" s="3">
-        <v>309400</v>
+        <v>327700</v>
       </c>
       <c r="H41" s="3">
-        <v>266100</v>
+        <v>289000</v>
       </c>
       <c r="I41" s="3">
-        <v>305100</v>
+        <v>248600</v>
       </c>
       <c r="J41" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K41" s="3">
         <v>262100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>262600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>236700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>296100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>298200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>459200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>239600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>353300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,56 +2961,59 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1904000</v>
+        <v>1534900</v>
       </c>
       <c r="E47" s="3">
-        <v>1891100</v>
+        <v>1778500</v>
       </c>
       <c r="F47" s="3">
-        <v>1617900</v>
+        <v>1766400</v>
       </c>
       <c r="G47" s="3">
-        <v>1508400</v>
+        <v>1511300</v>
       </c>
       <c r="H47" s="3">
-        <v>1502100</v>
+        <v>1409000</v>
       </c>
       <c r="I47" s="3">
-        <v>1516600</v>
+        <v>1403100</v>
       </c>
       <c r="J47" s="3">
+        <v>1416600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1627500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1700800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1754300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2077200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2235500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2303200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2469600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2500700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2922,56 +3026,59 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="E48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4500</v>
-      </c>
       <c r="I48" s="3">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="J48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2984,31 +3091,34 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>600</v>
+      </c>
+      <c r="G49" s="3">
         <v>700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>500</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
         <v>600</v>
@@ -3026,13 +3136,13 @@
         <v>600</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>500</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,56 +3286,59 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>6800</v>
       </c>
       <c r="E52" s="3">
-        <v>14800</v>
+        <v>900</v>
       </c>
       <c r="F52" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="G52" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="H52" s="3">
-        <v>3800</v>
+        <v>11200</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="J52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,56 +3416,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2355400</v>
+        <v>2123700</v>
       </c>
       <c r="E54" s="3">
-        <v>2274800</v>
+        <v>2200100</v>
       </c>
       <c r="F54" s="3">
-        <v>2089200</v>
+        <v>2124800</v>
       </c>
       <c r="G54" s="3">
-        <v>1930000</v>
+        <v>1951500</v>
       </c>
       <c r="H54" s="3">
-        <v>1878800</v>
+        <v>1802700</v>
       </c>
       <c r="I54" s="3">
-        <v>1902200</v>
+        <v>1754900</v>
       </c>
       <c r="J54" s="3">
+        <v>1776800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1946900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2005800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2052200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2439100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2603200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2810900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2756600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2901400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,50 +3596,53 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>47400</v>
+        <v>6700</v>
       </c>
       <c r="E58" s="3">
-        <v>53200</v>
+        <v>44300</v>
       </c>
       <c r="F58" s="3">
-        <v>56100</v>
+        <v>49700</v>
       </c>
       <c r="G58" s="3">
-        <v>80200</v>
+        <v>52400</v>
       </c>
       <c r="H58" s="3">
-        <v>119700</v>
+        <v>74900</v>
       </c>
       <c r="I58" s="3">
-        <v>153300</v>
+        <v>111800</v>
       </c>
       <c r="J58" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K58" s="3">
         <v>85000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>134100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>214700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>340900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>496400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>612000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3528,56 +3661,59 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36000</v>
+        <v>26800</v>
       </c>
       <c r="E59" s="3">
-        <v>30600</v>
+        <v>33600</v>
       </c>
       <c r="F59" s="3">
-        <v>31700</v>
+        <v>28600</v>
       </c>
       <c r="G59" s="3">
-        <v>32200</v>
+        <v>29600</v>
       </c>
       <c r="H59" s="3">
-        <v>58700</v>
+        <v>30100</v>
       </c>
       <c r="I59" s="3">
-        <v>48500</v>
+        <v>54800</v>
       </c>
       <c r="J59" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>124900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>126800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>124100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>92400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>88200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3590,8 +3726,11 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,56 +3791,59 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1317100</v>
+        <v>1185100</v>
       </c>
       <c r="E61" s="3">
-        <v>1211100</v>
+        <v>1230300</v>
       </c>
       <c r="F61" s="3">
-        <v>1055900</v>
+        <v>1131200</v>
       </c>
       <c r="G61" s="3">
-        <v>891300</v>
+        <v>986300</v>
       </c>
       <c r="H61" s="3">
-        <v>836900</v>
+        <v>832500</v>
       </c>
       <c r="I61" s="3">
-        <v>861200</v>
+        <v>781700</v>
       </c>
       <c r="J61" s="3">
+        <v>804400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1007400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1024300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1014700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1334100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1429700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1613600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1710400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1789000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3714,40 +3856,43 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33300</v>
+        <v>28000</v>
       </c>
       <c r="E62" s="3">
-        <v>57700</v>
+        <v>31100</v>
       </c>
       <c r="F62" s="3">
-        <v>61100</v>
+        <v>53900</v>
       </c>
       <c r="G62" s="3">
-        <v>62600</v>
+        <v>57100</v>
       </c>
       <c r="H62" s="3">
-        <v>26300</v>
+        <v>58400</v>
       </c>
       <c r="I62" s="3">
-        <v>33100</v>
+        <v>24500</v>
       </c>
       <c r="J62" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K62" s="3">
         <v>53200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -3759,11 +3904,11 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
+        <v>200</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,56 +4116,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1736400</v>
+        <v>1561000</v>
       </c>
       <c r="E66" s="3">
-        <v>1659700</v>
+        <v>1621900</v>
       </c>
       <c r="F66" s="3">
-        <v>1484300</v>
+        <v>1550300</v>
       </c>
       <c r="G66" s="3">
-        <v>1339700</v>
+        <v>1386400</v>
       </c>
       <c r="H66" s="3">
-        <v>1305600</v>
+        <v>1251400</v>
       </c>
       <c r="I66" s="3">
-        <v>1338100</v>
+        <v>1219500</v>
       </c>
       <c r="J66" s="3">
+        <v>1249900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1389200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1451700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1507400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1916400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2119700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2368600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2401800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2572900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,56 +4466,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>462100</v>
+        <v>416200</v>
       </c>
       <c r="E72" s="3">
-        <v>459100</v>
+        <v>431600</v>
       </c>
       <c r="F72" s="3">
-        <v>448800</v>
+        <v>428800</v>
       </c>
       <c r="G72" s="3">
-        <v>435300</v>
+        <v>419200</v>
       </c>
       <c r="H72" s="3">
-        <v>418700</v>
+        <v>406600</v>
       </c>
       <c r="I72" s="3">
-        <v>410800</v>
+        <v>391100</v>
       </c>
       <c r="J72" s="3">
+        <v>383700</v>
+      </c>
+      <c r="K72" s="3">
         <v>406800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>409900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>378100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>344300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>309000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>271400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>244600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,56 +4726,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>619000</v>
+        <v>562600</v>
       </c>
       <c r="E76" s="3">
-        <v>615100</v>
+        <v>578200</v>
       </c>
       <c r="F76" s="3">
-        <v>604900</v>
+        <v>574500</v>
       </c>
       <c r="G76" s="3">
-        <v>590200</v>
+        <v>565000</v>
       </c>
       <c r="H76" s="3">
-        <v>573100</v>
+        <v>551300</v>
       </c>
       <c r="I76" s="3">
-        <v>564100</v>
+        <v>535400</v>
       </c>
       <c r="J76" s="3">
+        <v>526900</v>
+      </c>
+      <c r="K76" s="3">
         <v>557700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>554100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>544800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>522700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>483500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>442300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>354800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>328500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3000</v>
+        <v>-15500</v>
       </c>
       <c r="E81" s="3">
-        <v>10300</v>
+        <v>2800</v>
       </c>
       <c r="F81" s="3">
-        <v>13500</v>
+        <v>9600</v>
       </c>
       <c r="G81" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>27300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>25100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>20600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>27300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>32900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>34600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>28200</v>
+      </c>
+      <c r="T81" s="3">
+        <v>26100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="V81" s="3">
+        <v>19400</v>
+      </c>
+      <c r="W81" s="3">
         <v>16600</v>
       </c>
-      <c r="H81" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>27300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>25100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>20600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>27300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>32900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>34600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>28200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>26100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>17000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>19400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>16600</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>65900</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
-        <v>69500</v>
-      </c>
       <c r="F8" s="3">
-        <v>70300</v>
+        <v>68900</v>
       </c>
       <c r="G8" s="3">
-        <v>70300</v>
+        <v>69700</v>
       </c>
       <c r="H8" s="3">
-        <v>70300</v>
+        <v>69700</v>
       </c>
       <c r="I8" s="3">
-        <v>76700</v>
+        <v>69700</v>
       </c>
       <c r="J8" s="3">
+        <v>76000</v>
+      </c>
+      <c r="K8" s="3">
         <v>74000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>84300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>92300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>116900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>129500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>148400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>156200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>154400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>153100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>159700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>139300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>115800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47800</v>
+        <v>41000</v>
       </c>
       <c r="E9" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="F9" s="3">
-        <v>44500</v>
+        <v>46800</v>
       </c>
       <c r="G9" s="3">
-        <v>37500</v>
+        <v>44100</v>
       </c>
       <c r="H9" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="I9" s="3">
-        <v>43700</v>
+        <v>38500</v>
       </c>
       <c r="J9" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K9" s="3">
         <v>42800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>46600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>54200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>62500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>63700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>68300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>73000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>69500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>67000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>69700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>60000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>45900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-47500</v>
+        <v>25000</v>
       </c>
       <c r="E10" s="3">
-        <v>22300</v>
+        <v>-47000</v>
       </c>
       <c r="F10" s="3">
-        <v>25900</v>
+        <v>22100</v>
       </c>
       <c r="G10" s="3">
-        <v>32800</v>
+        <v>25700</v>
       </c>
       <c r="H10" s="3">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="I10" s="3">
-        <v>33000</v>
+        <v>31200</v>
       </c>
       <c r="J10" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K10" s="3">
         <v>31200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>74800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>80100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>83200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>85000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>86000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>90100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>79300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>69900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18100</v>
+        <v>57400</v>
       </c>
       <c r="E17" s="3">
-        <v>65800</v>
+        <v>18000</v>
       </c>
       <c r="F17" s="3">
-        <v>59500</v>
+        <v>65200</v>
       </c>
       <c r="G17" s="3">
-        <v>53400</v>
+        <v>59000</v>
       </c>
       <c r="H17" s="3">
-        <v>51300</v>
+        <v>52900</v>
       </c>
       <c r="I17" s="3">
-        <v>65700</v>
+        <v>50800</v>
       </c>
       <c r="J17" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K17" s="3">
         <v>68000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>80000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>95700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>110900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>111700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>111800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>109800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>113500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>121900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>87900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-17700</v>
+        <v>8500</v>
       </c>
       <c r="E18" s="3">
-        <v>3800</v>
+        <v>-17600</v>
       </c>
       <c r="F18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J18" s="3">
         <v>10900</v>
       </c>
-      <c r="G18" s="3">
-        <v>16900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>19100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>33800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>44400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>44700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>39600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>27900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,32 +1557,35 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>38700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>45600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>39400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>28600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17700</v>
+        <v>8500</v>
       </c>
       <c r="E23" s="3">
-        <v>3800</v>
+        <v>-17600</v>
       </c>
       <c r="F23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J23" s="3">
         <v>10900</v>
       </c>
-      <c r="G23" s="3">
-        <v>16900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>19100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>44700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>39600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>37800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3600</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15500</v>
+        <v>6300</v>
       </c>
       <c r="E26" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
-        <v>9600</v>
-      </c>
       <c r="G26" s="3">
-        <v>12600</v>
+        <v>9500</v>
       </c>
       <c r="H26" s="3">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="I26" s="3">
-        <v>7400</v>
+        <v>15400</v>
       </c>
       <c r="J26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K26" s="3">
         <v>3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>34600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>26100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>17000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15500</v>
+        <v>6300</v>
       </c>
       <c r="E27" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
-        <v>9600</v>
-      </c>
       <c r="G27" s="3">
-        <v>12600</v>
+        <v>9500</v>
       </c>
       <c r="H27" s="3">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="I27" s="3">
-        <v>7400</v>
+        <v>15400</v>
       </c>
       <c r="J27" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>34600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>17000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15500</v>
+        <v>6300</v>
       </c>
       <c r="E33" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
-        <v>9600</v>
-      </c>
       <c r="G33" s="3">
-        <v>12600</v>
+        <v>9500</v>
       </c>
       <c r="H33" s="3">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="I33" s="3">
-        <v>7400</v>
+        <v>15400</v>
       </c>
       <c r="J33" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>32900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>34600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>17000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15500</v>
+        <v>6300</v>
       </c>
       <c r="E35" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
-        <v>9600</v>
-      </c>
       <c r="G35" s="3">
-        <v>12600</v>
+        <v>9500</v>
       </c>
       <c r="H35" s="3">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="I35" s="3">
-        <v>7400</v>
+        <v>15400</v>
       </c>
       <c r="J35" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>32900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>34600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>17000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>328800</v>
+        <v>248000</v>
       </c>
       <c r="E41" s="3">
-        <v>289400</v>
+        <v>325900</v>
       </c>
       <c r="F41" s="3">
-        <v>239800</v>
+        <v>286800</v>
       </c>
       <c r="G41" s="3">
-        <v>327700</v>
+        <v>237700</v>
       </c>
       <c r="H41" s="3">
-        <v>289000</v>
+        <v>324700</v>
       </c>
       <c r="I41" s="3">
-        <v>248600</v>
+        <v>286400</v>
       </c>
       <c r="J41" s="3">
+        <v>246300</v>
+      </c>
+      <c r="K41" s="3">
         <v>285000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>262100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>262600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>236700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>296100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>298200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>459200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>239600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>353300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,59 +3066,62 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1534900</v>
+        <v>1506800</v>
       </c>
       <c r="E47" s="3">
-        <v>1778500</v>
+        <v>1521000</v>
       </c>
       <c r="F47" s="3">
-        <v>1766400</v>
+        <v>1762400</v>
       </c>
       <c r="G47" s="3">
-        <v>1511300</v>
+        <v>1750500</v>
       </c>
       <c r="H47" s="3">
-        <v>1409000</v>
+        <v>1497600</v>
       </c>
       <c r="I47" s="3">
-        <v>1403100</v>
+        <v>1396300</v>
       </c>
       <c r="J47" s="3">
+        <v>1390500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1416600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1627500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1700800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1754300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2077200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2235500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2303200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2469600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2500700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3029,59 +3134,62 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
-        <v>3400</v>
-      </c>
       <c r="G48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
-        <v>3600</v>
-      </c>
       <c r="I48" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="J48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3109,10 +3220,10 @@
         <v>600</v>
       </c>
       <c r="G49" s="3">
+        <v>600</v>
+      </c>
+      <c r="H49" s="3">
         <v>700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -3121,7 +3232,7 @@
         <v>500</v>
       </c>
       <c r="K49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>600</v>
@@ -3139,13 +3250,13 @@
         <v>600</v>
       </c>
       <c r="Q49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>500</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,59 +3406,62 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6800</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
-        <v>13900</v>
-      </c>
       <c r="G52" s="3">
-        <v>12400</v>
+        <v>13700</v>
       </c>
       <c r="H52" s="3">
-        <v>11200</v>
+        <v>12300</v>
       </c>
       <c r="I52" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>40500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,59 +3542,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2123700</v>
+        <v>1976000</v>
       </c>
       <c r="E54" s="3">
-        <v>2200100</v>
+        <v>2100800</v>
       </c>
       <c r="F54" s="3">
-        <v>2124800</v>
+        <v>2180300</v>
       </c>
       <c r="G54" s="3">
-        <v>1951500</v>
+        <v>2105700</v>
       </c>
       <c r="H54" s="3">
-        <v>1802700</v>
+        <v>1933900</v>
       </c>
       <c r="I54" s="3">
-        <v>1754900</v>
+        <v>1786500</v>
       </c>
       <c r="J54" s="3">
+        <v>1739100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1776800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1946900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2005800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2052200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2439100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2603200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2810900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2756600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2901400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,53 +3730,56 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6700</v>
+        <v>2700</v>
       </c>
       <c r="E58" s="3">
-        <v>44300</v>
+        <v>6600</v>
       </c>
       <c r="F58" s="3">
-        <v>49700</v>
+        <v>43900</v>
       </c>
       <c r="G58" s="3">
-        <v>52400</v>
+        <v>49200</v>
       </c>
       <c r="H58" s="3">
-        <v>74900</v>
+        <v>51900</v>
       </c>
       <c r="I58" s="3">
-        <v>111800</v>
+        <v>74300</v>
       </c>
       <c r="J58" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K58" s="3">
         <v>143200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>85000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>134100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>214700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>340900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>496400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>612000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
@@ -3664,59 +3798,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26800</v>
+        <v>25600</v>
       </c>
       <c r="E59" s="3">
-        <v>33600</v>
+        <v>28400</v>
       </c>
       <c r="F59" s="3">
-        <v>28600</v>
+        <v>33300</v>
       </c>
       <c r="G59" s="3">
-        <v>29600</v>
+        <v>28300</v>
       </c>
       <c r="H59" s="3">
-        <v>30100</v>
+        <v>29400</v>
       </c>
       <c r="I59" s="3">
-        <v>54800</v>
+        <v>29800</v>
       </c>
       <c r="J59" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K59" s="3">
         <v>45300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>124900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>126800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>124100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>92400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>88200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,59 +3934,62 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1185100</v>
+        <v>1085200</v>
       </c>
       <c r="E61" s="3">
-        <v>1230300</v>
+        <v>1174400</v>
       </c>
       <c r="F61" s="3">
-        <v>1131200</v>
+        <v>1219200</v>
       </c>
       <c r="G61" s="3">
-        <v>986300</v>
+        <v>1121000</v>
       </c>
       <c r="H61" s="3">
-        <v>832500</v>
+        <v>977400</v>
       </c>
       <c r="I61" s="3">
-        <v>781700</v>
+        <v>825000</v>
       </c>
       <c r="J61" s="3">
+        <v>774700</v>
+      </c>
+      <c r="K61" s="3">
         <v>804400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1007400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1024300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1014700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1334100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1429700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1613600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1710400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1789000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,43 +4002,46 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28000</v>
+        <v>15900</v>
       </c>
       <c r="E62" s="3">
-        <v>31100</v>
+        <v>22200</v>
       </c>
       <c r="F62" s="3">
-        <v>53900</v>
+        <v>30800</v>
       </c>
       <c r="G62" s="3">
-        <v>57100</v>
+        <v>53400</v>
       </c>
       <c r="H62" s="3">
-        <v>58400</v>
+        <v>56600</v>
       </c>
       <c r="I62" s="3">
-        <v>24500</v>
+        <v>57900</v>
       </c>
       <c r="J62" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K62" s="3">
         <v>30900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>53200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3907,11 +4053,11 @@
         <v>200</v>
       </c>
       <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,59 +4274,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1561000</v>
+        <v>1412500</v>
       </c>
       <c r="E66" s="3">
-        <v>1621900</v>
+        <v>1543200</v>
       </c>
       <c r="F66" s="3">
-        <v>1550300</v>
+        <v>1607300</v>
       </c>
       <c r="G66" s="3">
-        <v>1386400</v>
+        <v>1536300</v>
       </c>
       <c r="H66" s="3">
-        <v>1251400</v>
+        <v>1373900</v>
       </c>
       <c r="I66" s="3">
-        <v>1219500</v>
+        <v>1240100</v>
       </c>
       <c r="J66" s="3">
+        <v>1208500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1249900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1389200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1451700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1507400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1916400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2119700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2368600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2401800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2572900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,59 +4640,62 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>416200</v>
+        <v>418700</v>
       </c>
       <c r="E72" s="3">
-        <v>431600</v>
+        <v>412400</v>
       </c>
       <c r="F72" s="3">
-        <v>428800</v>
+        <v>427700</v>
       </c>
       <c r="G72" s="3">
-        <v>419200</v>
+        <v>424900</v>
       </c>
       <c r="H72" s="3">
-        <v>406600</v>
+        <v>415400</v>
       </c>
       <c r="I72" s="3">
-        <v>391100</v>
+        <v>402900</v>
       </c>
       <c r="J72" s="3">
+        <v>387500</v>
+      </c>
+      <c r="K72" s="3">
         <v>383700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>406800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>409900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>400500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>378100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>344300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>309000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>271400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>244600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,59 +4912,62 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>562600</v>
+        <v>563500</v>
       </c>
       <c r="E76" s="3">
-        <v>578200</v>
+        <v>557600</v>
       </c>
       <c r="F76" s="3">
-        <v>574500</v>
+        <v>573000</v>
       </c>
       <c r="G76" s="3">
-        <v>565000</v>
+        <v>569300</v>
       </c>
       <c r="H76" s="3">
-        <v>551300</v>
+        <v>559900</v>
       </c>
       <c r="I76" s="3">
-        <v>535400</v>
+        <v>546300</v>
       </c>
       <c r="J76" s="3">
+        <v>530500</v>
+      </c>
+      <c r="K76" s="3">
         <v>526900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>557700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>554100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>544800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>522700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>483500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>442300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>354800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>328500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15500</v>
+        <v>6300</v>
       </c>
       <c r="E81" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
-        <v>9600</v>
-      </c>
       <c r="G81" s="3">
-        <v>12600</v>
+        <v>9500</v>
       </c>
       <c r="H81" s="3">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="I81" s="3">
-        <v>7400</v>
+        <v>15400</v>
       </c>
       <c r="J81" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>32900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>34600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>17000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>65900</v>
+        <v>62800</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>68900</v>
+        <v>65700</v>
       </c>
       <c r="G8" s="3">
-        <v>69700</v>
+        <v>66500</v>
       </c>
       <c r="H8" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="I8" s="3">
-        <v>69700</v>
+        <v>66400</v>
       </c>
       <c r="J8" s="3">
-        <v>76000</v>
+        <v>72500</v>
       </c>
       <c r="K8" s="3">
         <v>74000</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>41000</v>
+        <v>39000</v>
       </c>
       <c r="E9" s="3">
-        <v>47400</v>
+        <v>45200</v>
       </c>
       <c r="F9" s="3">
-        <v>46800</v>
+        <v>44600</v>
       </c>
       <c r="G9" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="H9" s="3">
-        <v>37100</v>
+        <v>35400</v>
       </c>
       <c r="I9" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="J9" s="3">
-        <v>43300</v>
+        <v>41300</v>
       </c>
       <c r="K9" s="3">
         <v>42800</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="E10" s="3">
-        <v>-47000</v>
+        <v>-44800</v>
       </c>
       <c r="F10" s="3">
-        <v>22100</v>
+        <v>21000</v>
       </c>
       <c r="G10" s="3">
-        <v>25700</v>
+        <v>24500</v>
       </c>
       <c r="H10" s="3">
-        <v>32500</v>
+        <v>31000</v>
       </c>
       <c r="I10" s="3">
-        <v>31200</v>
+        <v>29700</v>
       </c>
       <c r="J10" s="3">
-        <v>32700</v>
+        <v>31100</v>
       </c>
       <c r="K10" s="3">
         <v>31200</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>57400</v>
+        <v>54700</v>
       </c>
       <c r="E17" s="3">
-        <v>18000</v>
+        <v>17100</v>
       </c>
       <c r="F17" s="3">
-        <v>65200</v>
+        <v>62100</v>
       </c>
       <c r="G17" s="3">
-        <v>59000</v>
+        <v>56200</v>
       </c>
       <c r="H17" s="3">
-        <v>52900</v>
+        <v>50400</v>
       </c>
       <c r="I17" s="3">
-        <v>50800</v>
+        <v>48400</v>
       </c>
       <c r="J17" s="3">
-        <v>65100</v>
+        <v>62000</v>
       </c>
       <c r="K17" s="3">
         <v>68000</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E18" s="3">
-        <v>-17600</v>
+        <v>-16700</v>
       </c>
       <c r="F18" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G18" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="H18" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="I18" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="J18" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="K18" s="3">
         <v>6000</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E23" s="3">
-        <v>-17600</v>
+        <v>-16700</v>
       </c>
       <c r="F23" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G23" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="H23" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="I23" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="J23" s="3">
-        <v>10900</v>
+        <v>10400</v>
       </c>
       <c r="K23" s="3">
         <v>6000</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E24" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F24" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G24" s="3">
         <v>1200</v>
       </c>
       <c r="H24" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I24" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J24" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K24" s="3">
         <v>2300</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E26" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="F26" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G26" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H26" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="I26" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="J26" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K26" s="3">
         <v>3700</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E27" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="F27" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G27" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H27" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="I27" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="J27" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K27" s="3">
         <v>3700</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E33" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="F33" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G33" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H33" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="I33" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="J33" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K33" s="3">
         <v>3700</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E35" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="F35" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H35" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="I35" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="J35" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K35" s="3">
         <v>3700</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>248000</v>
+        <v>236400</v>
       </c>
       <c r="E41" s="3">
-        <v>325900</v>
+        <v>310600</v>
       </c>
       <c r="F41" s="3">
-        <v>286800</v>
+        <v>273400</v>
       </c>
       <c r="G41" s="3">
-        <v>237700</v>
+        <v>226500</v>
       </c>
       <c r="H41" s="3">
-        <v>324700</v>
+        <v>309500</v>
       </c>
       <c r="I41" s="3">
-        <v>286400</v>
+        <v>273000</v>
       </c>
       <c r="J41" s="3">
-        <v>246300</v>
+        <v>234800</v>
       </c>
       <c r="K41" s="3">
         <v>285000</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1506800</v>
+        <v>1436300</v>
       </c>
       <c r="E47" s="3">
-        <v>1521000</v>
+        <v>1449900</v>
       </c>
       <c r="F47" s="3">
-        <v>1762400</v>
+        <v>1680000</v>
       </c>
       <c r="G47" s="3">
-        <v>1750500</v>
+        <v>1668600</v>
       </c>
       <c r="H47" s="3">
-        <v>1497600</v>
+        <v>1427600</v>
       </c>
       <c r="I47" s="3">
-        <v>1396300</v>
+        <v>1331000</v>
       </c>
       <c r="J47" s="3">
-        <v>1390500</v>
+        <v>1325400</v>
       </c>
       <c r="K47" s="3">
         <v>1416600</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
-        <v>2900</v>
-      </c>
       <c r="G48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
-        <v>3500</v>
-      </c>
       <c r="I48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J48" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K48" s="3">
         <v>4700</v>
@@ -3211,7 +3211,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -3223,10 +3223,10 @@
         <v>600</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -3418,22 +3418,22 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="H52" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="I52" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="J52" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K52" s="3">
         <v>3000</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1976000</v>
+        <v>1883600</v>
       </c>
       <c r="E54" s="3">
-        <v>2100800</v>
+        <v>2002600</v>
       </c>
       <c r="F54" s="3">
-        <v>2180300</v>
+        <v>2078300</v>
       </c>
       <c r="G54" s="3">
-        <v>2105700</v>
+        <v>2007200</v>
       </c>
       <c r="H54" s="3">
-        <v>1933900</v>
+        <v>1843400</v>
       </c>
       <c r="I54" s="3">
-        <v>1786500</v>
+        <v>1702900</v>
       </c>
       <c r="J54" s="3">
-        <v>1739100</v>
+        <v>1657700</v>
       </c>
       <c r="K54" s="3">
         <v>1776800</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="F58" s="3">
-        <v>43900</v>
+        <v>41800</v>
       </c>
       <c r="G58" s="3">
-        <v>49200</v>
+        <v>46900</v>
       </c>
       <c r="H58" s="3">
-        <v>51900</v>
+        <v>49500</v>
       </c>
       <c r="I58" s="3">
-        <v>74300</v>
+        <v>70800</v>
       </c>
       <c r="J58" s="3">
-        <v>110800</v>
+        <v>105600</v>
       </c>
       <c r="K58" s="3">
         <v>143200</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="E59" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>31700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>28000</v>
+      </c>
+      <c r="I59" s="3">
         <v>28400</v>
       </c>
-      <c r="F59" s="3">
-        <v>33300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>28300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>29400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>29800</v>
-      </c>
       <c r="J59" s="3">
-        <v>54300</v>
+        <v>51800</v>
       </c>
       <c r="K59" s="3">
         <v>45300</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1085200</v>
+        <v>1034400</v>
       </c>
       <c r="E61" s="3">
-        <v>1174400</v>
+        <v>1119400</v>
       </c>
       <c r="F61" s="3">
-        <v>1219200</v>
+        <v>1162200</v>
       </c>
       <c r="G61" s="3">
-        <v>1121000</v>
+        <v>1068600</v>
       </c>
       <c r="H61" s="3">
-        <v>977400</v>
+        <v>931700</v>
       </c>
       <c r="I61" s="3">
-        <v>825000</v>
+        <v>786400</v>
       </c>
       <c r="J61" s="3">
-        <v>774700</v>
+        <v>738400</v>
       </c>
       <c r="K61" s="3">
         <v>804400</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15900</v>
+        <v>15100</v>
       </c>
       <c r="E62" s="3">
-        <v>22200</v>
+        <v>21100</v>
       </c>
       <c r="F62" s="3">
-        <v>30800</v>
+        <v>29400</v>
       </c>
       <c r="G62" s="3">
-        <v>53400</v>
+        <v>50900</v>
       </c>
       <c r="H62" s="3">
-        <v>56600</v>
+        <v>53900</v>
       </c>
       <c r="I62" s="3">
-        <v>57900</v>
+        <v>55200</v>
       </c>
       <c r="J62" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="K62" s="3">
         <v>30900</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1412500</v>
+        <v>1346500</v>
       </c>
       <c r="E66" s="3">
-        <v>1543200</v>
+        <v>1471000</v>
       </c>
       <c r="F66" s="3">
-        <v>1607300</v>
+        <v>1532100</v>
       </c>
       <c r="G66" s="3">
-        <v>1536300</v>
+        <v>1464500</v>
       </c>
       <c r="H66" s="3">
-        <v>1373900</v>
+        <v>1309700</v>
       </c>
       <c r="I66" s="3">
-        <v>1240100</v>
+        <v>1182100</v>
       </c>
       <c r="J66" s="3">
-        <v>1208500</v>
+        <v>1152000</v>
       </c>
       <c r="K66" s="3">
         <v>1249900</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>418700</v>
+        <v>399100</v>
       </c>
       <c r="E72" s="3">
-        <v>412400</v>
+        <v>393100</v>
       </c>
       <c r="F72" s="3">
-        <v>427700</v>
+        <v>407700</v>
       </c>
       <c r="G72" s="3">
-        <v>424900</v>
+        <v>405100</v>
       </c>
       <c r="H72" s="3">
-        <v>415400</v>
+        <v>396000</v>
       </c>
       <c r="I72" s="3">
-        <v>402900</v>
+        <v>384100</v>
       </c>
       <c r="J72" s="3">
-        <v>387500</v>
+        <v>369400</v>
       </c>
       <c r="K72" s="3">
         <v>383700</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>563500</v>
+        <v>537100</v>
       </c>
       <c r="E76" s="3">
-        <v>557600</v>
+        <v>531500</v>
       </c>
       <c r="F76" s="3">
-        <v>573000</v>
+        <v>546200</v>
       </c>
       <c r="G76" s="3">
-        <v>569300</v>
+        <v>542700</v>
       </c>
       <c r="H76" s="3">
-        <v>559900</v>
+        <v>533800</v>
       </c>
       <c r="I76" s="3">
-        <v>546300</v>
+        <v>520800</v>
       </c>
       <c r="J76" s="3">
-        <v>530500</v>
+        <v>505700</v>
       </c>
       <c r="K76" s="3">
         <v>526900</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E81" s="3">
-        <v>-15300</v>
+        <v>-14600</v>
       </c>
       <c r="F81" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G81" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H81" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="I81" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="J81" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K81" s="3">
         <v>3700</v>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62800</v>
+        <v>67300</v>
       </c>
       <c r="E8" s="3">
+        <v>65500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>64800</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>65700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>66500</v>
-      </c>
       <c r="H8" s="3">
+        <v>67800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>68600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K8" s="3">
         <v>66400</v>
       </c>
-      <c r="I8" s="3">
-        <v>66400</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>72500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>74000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>84300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>92300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>116900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>129500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>138400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>148400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>156200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>154400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>153100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>159700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>139300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>115800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39000</v>
+        <v>40300</v>
       </c>
       <c r="E9" s="3">
-        <v>45200</v>
+        <v>37900</v>
       </c>
       <c r="F9" s="3">
-        <v>44600</v>
+        <v>40300</v>
       </c>
       <c r="G9" s="3">
-        <v>42000</v>
+        <v>46600</v>
       </c>
       <c r="H9" s="3">
-        <v>35400</v>
+        <v>46100</v>
       </c>
       <c r="I9" s="3">
+        <v>43300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K9" s="3">
         <v>36700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>41300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>42800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>46600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>48100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>54200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>62500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>63700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>68300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>73000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>69500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>67000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>69700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>60000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>45900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23800</v>
+        <v>27000</v>
       </c>
       <c r="E10" s="3">
-        <v>-44800</v>
+        <v>27600</v>
       </c>
       <c r="F10" s="3">
-        <v>21000</v>
+        <v>24600</v>
       </c>
       <c r="G10" s="3">
-        <v>24500</v>
+        <v>-46200</v>
       </c>
       <c r="H10" s="3">
-        <v>31000</v>
+        <v>21700</v>
       </c>
       <c r="I10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K10" s="3">
         <v>29700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>31100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>31200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>37700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>44200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>62600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>67000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>74800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>80100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>83200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>85000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>86000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>90100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>79300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>69900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>54700</v>
+        <v>58300</v>
       </c>
       <c r="E17" s="3">
-        <v>17100</v>
+        <v>62400</v>
       </c>
       <c r="F17" s="3">
-        <v>62100</v>
+        <v>56400</v>
       </c>
       <c r="G17" s="3">
-        <v>56200</v>
+        <v>17700</v>
       </c>
       <c r="H17" s="3">
-        <v>50400</v>
+        <v>64100</v>
       </c>
       <c r="I17" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K17" s="3">
         <v>48400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>62000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>68000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>97300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>79400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>80000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>95700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>110900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>111700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>111800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>109800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>113500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>121900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>109900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>87900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8100</v>
+        <v>9000</v>
       </c>
       <c r="E18" s="3">
-        <v>-16700</v>
+        <v>3100</v>
       </c>
       <c r="F18" s="3">
-        <v>3600</v>
+        <v>8400</v>
       </c>
       <c r="G18" s="3">
-        <v>10300</v>
+        <v>-17300</v>
       </c>
       <c r="H18" s="3">
-        <v>16000</v>
+        <v>3700</v>
       </c>
       <c r="I18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K18" s="3">
         <v>18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>36800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>33800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>27600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>36800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>44400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>44700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>39600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>37800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>29400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>27900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1584,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1560,32 +1634,38 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>38700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>45600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>39400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>28600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1732,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8100</v>
+        <v>9000</v>
       </c>
       <c r="E23" s="3">
-        <v>-16700</v>
+        <v>3100</v>
       </c>
       <c r="F23" s="3">
-        <v>3600</v>
+        <v>8400</v>
       </c>
       <c r="G23" s="3">
-        <v>10300</v>
+        <v>-17300</v>
       </c>
       <c r="H23" s="3">
-        <v>16000</v>
+        <v>3700</v>
       </c>
       <c r="I23" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K23" s="3">
         <v>18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>12900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>36800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>33800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>27600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>36800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>44400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>44700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>39600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>37800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>29400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>27900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>9500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>6900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>11400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>11700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>12400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>8500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E26" s="3">
-        <v>-14600</v>
+        <v>2600</v>
       </c>
       <c r="F26" s="3">
-        <v>2600</v>
+        <v>6200</v>
       </c>
       <c r="G26" s="3">
-        <v>9100</v>
+        <v>-15000</v>
       </c>
       <c r="H26" s="3">
-        <v>11900</v>
+        <v>2700</v>
       </c>
       <c r="I26" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K26" s="3">
         <v>14700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>9400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>27300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>25100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>20600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>27300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>32900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>34600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>28200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>26100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>17000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>19400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E27" s="3">
-        <v>-14600</v>
+        <v>2600</v>
       </c>
       <c r="F27" s="3">
-        <v>2600</v>
+        <v>6200</v>
       </c>
       <c r="G27" s="3">
-        <v>9100</v>
+        <v>-15000</v>
       </c>
       <c r="H27" s="3">
-        <v>11900</v>
+        <v>2700</v>
       </c>
       <c r="I27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K27" s="3">
         <v>14700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>9400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>27300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>25100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>20600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>27300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>32900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>34600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>28200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>26100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>17000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>19400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,76 +2472,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E33" s="3">
-        <v>-14600</v>
+        <v>2600</v>
       </c>
       <c r="F33" s="3">
-        <v>2600</v>
+        <v>6200</v>
       </c>
       <c r="G33" s="3">
-        <v>9100</v>
+        <v>-15000</v>
       </c>
       <c r="H33" s="3">
-        <v>11900</v>
+        <v>2700</v>
       </c>
       <c r="I33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K33" s="3">
         <v>14700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>9400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>27300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>25100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>20600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>27300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>32900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>34600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>28200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>26100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>17000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>19400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E35" s="3">
-        <v>-14600</v>
+        <v>2600</v>
       </c>
       <c r="F35" s="3">
-        <v>2600</v>
+        <v>6200</v>
       </c>
       <c r="G35" s="3">
-        <v>9100</v>
+        <v>-15000</v>
       </c>
       <c r="H35" s="3">
-        <v>11900</v>
+        <v>2700</v>
       </c>
       <c r="I35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K35" s="3">
         <v>14700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>9400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>27300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>25100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>20600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>27300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>32900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>34600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>28200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>26100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>17000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>19400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2833,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>236400</v>
+        <v>197200</v>
       </c>
       <c r="E41" s="3">
-        <v>310600</v>
+        <v>207300</v>
       </c>
       <c r="F41" s="3">
-        <v>273400</v>
+        <v>243900</v>
       </c>
       <c r="G41" s="3">
-        <v>226500</v>
+        <v>320500</v>
       </c>
       <c r="H41" s="3">
-        <v>309500</v>
+        <v>282100</v>
       </c>
       <c r="I41" s="3">
+        <v>233700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>319400</v>
+      </c>
+      <c r="K41" s="3">
         <v>273000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>234800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>285000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>262100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>262600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>236700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>296100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>298200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>459200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>239600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>353300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2729,8 +2903,14 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2977,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,65 +3273,71 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1436300</v>
+        <v>1528300</v>
       </c>
       <c r="E47" s="3">
-        <v>1449900</v>
+        <v>1448000</v>
       </c>
       <c r="F47" s="3">
-        <v>1680000</v>
+        <v>1481900</v>
       </c>
       <c r="G47" s="3">
-        <v>1668600</v>
+        <v>1495900</v>
       </c>
       <c r="H47" s="3">
-        <v>1427600</v>
+        <v>1733300</v>
       </c>
       <c r="I47" s="3">
+        <v>1721600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1472900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1331000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1325400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1416600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1627500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1700800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1754300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2077200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2235500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2303200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2469600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2500700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3137,65 +3347,71 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="R48" s="3">
+        <v>15200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>7300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>8300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>10800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>15200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>3300</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3205,8 +3421,14 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,7 +3436,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F49" s="3">
         <v>600</v>
@@ -3226,19 +3448,19 @@
         <v>600</v>
       </c>
       <c r="I49" s="3">
+        <v>600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>600</v>
       </c>
       <c r="N49" s="3">
         <v>600</v>
@@ -3253,17 +3475,17 @@
         <v>600</v>
       </c>
       <c r="R49" s="3">
+        <v>600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>600</v>
+      </c>
+      <c r="T49" s="3">
         <v>500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3273,8 +3495,14 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,65 +3643,71 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>11700</v>
-      </c>
       <c r="I52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K52" s="3">
         <v>10600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>40500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>43000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>39300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>31600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>26300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>23900</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3477,8 +3717,14 @@
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3791,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1883600</v>
+        <v>2003700</v>
       </c>
       <c r="E54" s="3">
-        <v>2002600</v>
+        <v>1885200</v>
       </c>
       <c r="F54" s="3">
-        <v>2078300</v>
+        <v>1943400</v>
       </c>
       <c r="G54" s="3">
-        <v>2007200</v>
+        <v>2066100</v>
       </c>
       <c r="H54" s="3">
-        <v>1843400</v>
+        <v>2144300</v>
       </c>
       <c r="I54" s="3">
+        <v>2070900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1902000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1702900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1657700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1776800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1946900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2005800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2052200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2439100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2603200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2810900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2756600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2901400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3613,8 +3865,14 @@
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,59 +3995,65 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="E58" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>41800</v>
-      </c>
       <c r="G58" s="3">
-        <v>46900</v>
+        <v>6500</v>
       </c>
       <c r="H58" s="3">
-        <v>49500</v>
+        <v>43200</v>
       </c>
       <c r="I58" s="3">
+        <v>48400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K58" s="3">
         <v>70800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>105600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>143200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>85000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>134100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>214700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>340900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>496400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>612000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
@@ -3801,65 +4069,71 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24400</v>
+        <v>29900</v>
       </c>
       <c r="E59" s="3">
-        <v>27100</v>
+        <v>28500</v>
       </c>
       <c r="F59" s="3">
-        <v>31700</v>
+        <v>25100</v>
       </c>
       <c r="G59" s="3">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="H59" s="3">
-        <v>28000</v>
+        <v>32800</v>
       </c>
       <c r="I59" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K59" s="3">
         <v>28400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>51800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>45300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>27300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>32700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>124900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>126800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>124100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>106200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>92400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>88200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,8 +4143,14 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,65 +4217,71 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1034400</v>
+        <v>1090700</v>
       </c>
       <c r="E61" s="3">
-        <v>1119400</v>
+        <v>1003600</v>
       </c>
       <c r="F61" s="3">
-        <v>1162200</v>
+        <v>1067300</v>
       </c>
       <c r="G61" s="3">
-        <v>1068600</v>
+        <v>1155000</v>
       </c>
       <c r="H61" s="3">
-        <v>931700</v>
+        <v>1199100</v>
       </c>
       <c r="I61" s="3">
+        <v>1102500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>961200</v>
+      </c>
+      <c r="K61" s="3">
         <v>786400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>738400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>804400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1007400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1024300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1014700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1334100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1429700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1613600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1710400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1789000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4005,49 +4291,55 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15100</v>
+        <v>9800</v>
       </c>
       <c r="E62" s="3">
-        <v>21100</v>
+        <v>10100</v>
       </c>
       <c r="F62" s="3">
-        <v>29400</v>
+        <v>15600</v>
       </c>
       <c r="G62" s="3">
-        <v>50900</v>
+        <v>21800</v>
       </c>
       <c r="H62" s="3">
-        <v>53900</v>
+        <v>30300</v>
       </c>
       <c r="I62" s="3">
+        <v>52500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K62" s="3">
         <v>55200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>30900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>53200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>55300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>200</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -4056,14 +4348,14 @@
         <v>200</v>
       </c>
       <c r="S62" s="3">
+        <v>200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>200</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +4365,14 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4587,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1346500</v>
+        <v>1446300</v>
       </c>
       <c r="E66" s="3">
-        <v>1471000</v>
+        <v>1331500</v>
       </c>
       <c r="F66" s="3">
-        <v>1532100</v>
+        <v>1389200</v>
       </c>
       <c r="G66" s="3">
-        <v>1464500</v>
+        <v>1517800</v>
       </c>
       <c r="H66" s="3">
-        <v>1309700</v>
+        <v>1580800</v>
       </c>
       <c r="I66" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1351300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1182100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1152000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1249900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1389200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1451700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1507400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1916400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2119700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2368600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2401800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2572900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4345,8 +4661,14 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4985,71 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>399100</v>
+        <v>421000</v>
       </c>
       <c r="E72" s="3">
-        <v>393100</v>
+        <v>414400</v>
       </c>
       <c r="F72" s="3">
-        <v>407700</v>
+        <v>411800</v>
       </c>
       <c r="G72" s="3">
-        <v>405100</v>
+        <v>405600</v>
       </c>
       <c r="H72" s="3">
-        <v>396000</v>
+        <v>420700</v>
       </c>
       <c r="I72" s="3">
+        <v>417900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>408600</v>
+      </c>
+      <c r="K72" s="3">
         <v>384100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>369400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>383700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>406800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>409900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>400500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>378100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>344300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>309000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>271400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>244600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4711,8 +5059,14 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5281,71 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>537100</v>
+        <v>557300</v>
       </c>
       <c r="E76" s="3">
-        <v>531500</v>
+        <v>553700</v>
       </c>
       <c r="F76" s="3">
-        <v>546200</v>
+        <v>554200</v>
       </c>
       <c r="G76" s="3">
-        <v>542700</v>
+        <v>548400</v>
       </c>
       <c r="H76" s="3">
-        <v>533800</v>
+        <v>563500</v>
       </c>
       <c r="I76" s="3">
+        <v>559900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>550700</v>
+      </c>
+      <c r="K76" s="3">
         <v>520800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>505700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>526900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>557700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>554100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>544800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>522700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>483500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>442300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>354800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>328500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4983,8 +5355,14 @@
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E81" s="3">
-        <v>-14600</v>
+        <v>2600</v>
       </c>
       <c r="F81" s="3">
-        <v>2600</v>
+        <v>6200</v>
       </c>
       <c r="G81" s="3">
-        <v>9100</v>
+        <v>-15000</v>
       </c>
       <c r="H81" s="3">
-        <v>11900</v>
+        <v>2700</v>
       </c>
       <c r="I81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K81" s="3">
         <v>14700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>9400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>27300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>25100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>20600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>27300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>32900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>34600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>28200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>26100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>17000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>19400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67300</v>
+        <v>68100</v>
       </c>
       <c r="E8" s="3">
-        <v>65500</v>
+        <v>66600</v>
       </c>
       <c r="F8" s="3">
         <v>64800</v>
       </c>
       <c r="G8" s="3">
+        <v>64200</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>67800</v>
-      </c>
       <c r="I8" s="3">
-        <v>68600</v>
+        <v>67100</v>
       </c>
       <c r="J8" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K8" s="3">
         <v>68500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>72500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>116900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>129500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>148400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>156200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>154400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>153100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>159700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>139300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>115800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="E9" s="3">
-        <v>37900</v>
+        <v>39900</v>
       </c>
       <c r="F9" s="3">
-        <v>40300</v>
+        <v>37500</v>
       </c>
       <c r="G9" s="3">
-        <v>46600</v>
+        <v>39900</v>
       </c>
       <c r="H9" s="3">
         <v>46100</v>
       </c>
       <c r="I9" s="3">
-        <v>43300</v>
+        <v>45600</v>
       </c>
       <c r="J9" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K9" s="3">
         <v>36500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>46600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>54200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>62500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>63700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>68300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>73000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>69500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>67000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>69700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>60000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>45900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27000</v>
+        <v>28200</v>
       </c>
       <c r="E10" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="F10" s="3">
-        <v>24600</v>
+        <v>27300</v>
       </c>
       <c r="G10" s="3">
-        <v>-46200</v>
+        <v>24300</v>
       </c>
       <c r="H10" s="3">
-        <v>21700</v>
+        <v>-45800</v>
       </c>
       <c r="I10" s="3">
-        <v>25200</v>
+        <v>21500</v>
       </c>
       <c r="J10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K10" s="3">
         <v>32000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>31100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>67000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>74800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>80100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>83200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>85000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>86000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>90100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>79300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>69900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>58300</v>
+        <v>63800</v>
       </c>
       <c r="E17" s="3">
-        <v>62400</v>
+        <v>57700</v>
       </c>
       <c r="F17" s="3">
-        <v>56400</v>
+        <v>61800</v>
       </c>
       <c r="G17" s="3">
-        <v>17700</v>
+        <v>55900</v>
       </c>
       <c r="H17" s="3">
-        <v>64100</v>
+        <v>17500</v>
       </c>
       <c r="I17" s="3">
-        <v>58000</v>
+        <v>63400</v>
       </c>
       <c r="J17" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K17" s="3">
         <v>52000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>79400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>80000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>110900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>111700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>111800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>113500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>121900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>109900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>87900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="E18" s="3">
-        <v>3100</v>
+        <v>8900</v>
       </c>
       <c r="F18" s="3">
-        <v>8400</v>
+        <v>3000</v>
       </c>
       <c r="G18" s="3">
-        <v>-17300</v>
+        <v>8300</v>
       </c>
       <c r="H18" s="3">
-        <v>3700</v>
+        <v>-17100</v>
       </c>
       <c r="I18" s="3">
-        <v>10600</v>
+        <v>3600</v>
       </c>
       <c r="J18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K18" s="3">
         <v>16500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>36800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>44400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>44700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>39600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>37800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>27900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,32 +1676,35 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>38700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>45600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>39400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>28600</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9000</v>
+        <v>4300</v>
       </c>
       <c r="E23" s="3">
-        <v>3100</v>
+        <v>8900</v>
       </c>
       <c r="F23" s="3">
-        <v>8400</v>
+        <v>3000</v>
       </c>
       <c r="G23" s="3">
-        <v>-17300</v>
+        <v>8300</v>
       </c>
       <c r="H23" s="3">
-        <v>3700</v>
+        <v>-17100</v>
       </c>
       <c r="I23" s="3">
-        <v>10600</v>
+        <v>3600</v>
       </c>
       <c r="J23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K23" s="3">
         <v>16500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>36800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>36800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>39600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>37800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>29400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>27900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3400</v>
       </c>
       <c r="L24" s="3">
         <v>3400</v>
       </c>
       <c r="M24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="E26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F26" s="3">
         <v>2600</v>
       </c>
-      <c r="F26" s="3">
-        <v>6200</v>
-      </c>
       <c r="G26" s="3">
-        <v>-15000</v>
+        <v>6100</v>
       </c>
       <c r="H26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="P26" s="3">
         <v>9400</v>
       </c>
-      <c r="J26" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>27300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>34600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>28200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>26100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>19400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F27" s="3">
         <v>2600</v>
       </c>
-      <c r="F27" s="3">
-        <v>6200</v>
-      </c>
       <c r="G27" s="3">
-        <v>-15000</v>
+        <v>6100</v>
       </c>
       <c r="H27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="P27" s="3">
         <v>9400</v>
       </c>
-      <c r="J27" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>28200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>26100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F33" s="3">
         <v>2600</v>
       </c>
-      <c r="F33" s="3">
-        <v>6200</v>
-      </c>
       <c r="G33" s="3">
-        <v>-15000</v>
+        <v>6100</v>
       </c>
       <c r="H33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="P33" s="3">
         <v>9400</v>
       </c>
-      <c r="J33" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>32900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>28200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>26100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="E35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F35" s="3">
         <v>2600</v>
       </c>
-      <c r="F35" s="3">
-        <v>6200</v>
-      </c>
       <c r="G35" s="3">
-        <v>-15000</v>
+        <v>6100</v>
       </c>
       <c r="H35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="P35" s="3">
         <v>9400</v>
       </c>
-      <c r="J35" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>32900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>28200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>26100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,68 +2920,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>197200</v>
+        <v>251900</v>
       </c>
       <c r="E41" s="3">
-        <v>207300</v>
+        <v>195200</v>
       </c>
       <c r="F41" s="3">
-        <v>243900</v>
+        <v>205100</v>
       </c>
       <c r="G41" s="3">
-        <v>320500</v>
+        <v>241400</v>
       </c>
       <c r="H41" s="3">
-        <v>282100</v>
+        <v>317200</v>
       </c>
       <c r="I41" s="3">
-        <v>233700</v>
+        <v>279200</v>
       </c>
       <c r="J41" s="3">
+        <v>231300</v>
+      </c>
+      <c r="K41" s="3">
         <v>319400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>273000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>234800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>285000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>262100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>262600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>236700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>296100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>298200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>459200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>239600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>353300</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2909,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,68 +3380,71 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1528300</v>
+        <v>1592200</v>
       </c>
       <c r="E47" s="3">
-        <v>1448000</v>
+        <v>1512700</v>
       </c>
       <c r="F47" s="3">
-        <v>1481900</v>
+        <v>1433200</v>
       </c>
       <c r="G47" s="3">
-        <v>1495900</v>
+        <v>1466700</v>
       </c>
       <c r="H47" s="3">
-        <v>1733300</v>
+        <v>1480600</v>
       </c>
       <c r="I47" s="3">
-        <v>1721600</v>
+        <v>1715600</v>
       </c>
       <c r="J47" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1472900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1331000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1325400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1416600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1627500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1700800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1754300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2077200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2235500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2303200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2469600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2500700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3353,68 +3457,71 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3300</v>
-      </c>
       <c r="J48" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K48" s="3">
         <v>3400</v>
       </c>
       <c r="L48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M48" s="3">
         <v>3900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3439,7 +3549,7 @@
         <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
@@ -3451,19 +3561,19 @@
         <v>600</v>
       </c>
       <c r="J49" s="3">
+        <v>600</v>
+      </c>
+      <c r="K49" s="3">
         <v>700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
       <c r="N49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>600</v>
@@ -3481,13 +3591,13 @@
         <v>600</v>
       </c>
       <c r="T49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="U49" s="3">
         <v>500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
+      <c r="V49" s="3">
+        <v>500</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,68 +3765,71 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
-        <v>13500</v>
-      </c>
       <c r="J52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K52" s="3">
         <v>12100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>40500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>23900</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,68 +3919,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2003700</v>
+        <v>2058600</v>
       </c>
       <c r="E54" s="3">
-        <v>1885200</v>
+        <v>1983200</v>
       </c>
       <c r="F54" s="3">
-        <v>1943400</v>
+        <v>1865900</v>
       </c>
       <c r="G54" s="3">
-        <v>2066100</v>
+        <v>1923500</v>
       </c>
       <c r="H54" s="3">
-        <v>2144300</v>
+        <v>2045000</v>
       </c>
       <c r="I54" s="3">
-        <v>2070900</v>
+        <v>2122300</v>
       </c>
       <c r="J54" s="3">
+        <v>2049700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1902000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1702900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1657700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1776800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1946900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2005800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2052200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2439100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2603200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2810900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2756600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2901400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4001,62 +4131,65 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>16000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
-        <v>6500</v>
-      </c>
       <c r="H58" s="3">
-        <v>43200</v>
+        <v>6400</v>
       </c>
       <c r="I58" s="3">
-        <v>48400</v>
+        <v>42700</v>
       </c>
       <c r="J58" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K58" s="3">
         <v>51000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>70800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>105600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>143200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>85000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>134100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>214700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>340900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>496400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>612000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -4075,68 +4208,71 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29900</v>
+        <v>35100</v>
       </c>
       <c r="E59" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="F59" s="3">
-        <v>25100</v>
+        <v>28200</v>
       </c>
       <c r="G59" s="3">
-        <v>28000</v>
+        <v>24900</v>
       </c>
       <c r="H59" s="3">
-        <v>32800</v>
+        <v>27700</v>
       </c>
       <c r="I59" s="3">
-        <v>27900</v>
+        <v>32400</v>
       </c>
       <c r="J59" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K59" s="3">
         <v>28900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>124900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>126800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>124100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>106200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>92400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>88200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4149,8 +4285,11 @@
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,68 +4362,71 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1090700</v>
+        <v>1098500</v>
       </c>
       <c r="E61" s="3">
-        <v>1003600</v>
+        <v>1079500</v>
       </c>
       <c r="F61" s="3">
-        <v>1067300</v>
+        <v>993400</v>
       </c>
       <c r="G61" s="3">
-        <v>1155000</v>
+        <v>1056300</v>
       </c>
       <c r="H61" s="3">
-        <v>1199100</v>
+        <v>1143200</v>
       </c>
       <c r="I61" s="3">
-        <v>1102500</v>
+        <v>1186800</v>
       </c>
       <c r="J61" s="3">
+        <v>1091200</v>
+      </c>
+      <c r="K61" s="3">
         <v>961200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>786400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>738400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>804400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1007400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1024300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1014700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1334100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1429700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1613600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1710400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1789000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4297,52 +4439,55 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9800</v>
+        <v>10500</v>
       </c>
       <c r="E62" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="F62" s="3">
-        <v>15600</v>
+        <v>10000</v>
       </c>
       <c r="G62" s="3">
-        <v>21800</v>
+        <v>15500</v>
       </c>
       <c r="H62" s="3">
-        <v>30300</v>
+        <v>21600</v>
       </c>
       <c r="I62" s="3">
-        <v>52500</v>
+        <v>30000</v>
       </c>
       <c r="J62" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K62" s="3">
         <v>55700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>53200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>55300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>200</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
@@ -4354,11 +4499,11 @@
         <v>200</v>
       </c>
       <c r="U62" s="3">
+        <v>200</v>
+      </c>
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,68 +4747,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1446300</v>
+        <v>1506200</v>
       </c>
       <c r="E66" s="3">
-        <v>1331500</v>
+        <v>1431500</v>
       </c>
       <c r="F66" s="3">
+        <v>1317900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1502200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>1564600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1495500</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1351300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1182100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1249900</v>
+      </c>
+      <c r="O66" s="3">
         <v>1389200</v>
       </c>
-      <c r="G66" s="3">
-        <v>1517800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1580800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1511000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1351300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1182100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1152000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1249900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1389200</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1451700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1507400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1916400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2119700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2368600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2401800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2572900</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,68 +5161,71 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>421000</v>
+        <v>420600</v>
       </c>
       <c r="E72" s="3">
-        <v>414400</v>
+        <v>416700</v>
       </c>
       <c r="F72" s="3">
-        <v>411800</v>
+        <v>410200</v>
       </c>
       <c r="G72" s="3">
-        <v>405600</v>
+        <v>407600</v>
       </c>
       <c r="H72" s="3">
-        <v>420700</v>
+        <v>401500</v>
       </c>
       <c r="I72" s="3">
-        <v>417900</v>
+        <v>416400</v>
       </c>
       <c r="J72" s="3">
+        <v>413600</v>
+      </c>
+      <c r="K72" s="3">
         <v>408600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>384100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>369400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>383700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>406800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>409900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>400500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>378100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>344300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>309000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>271400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>244600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,68 +5469,71 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>557300</v>
+        <v>552400</v>
       </c>
       <c r="E76" s="3">
-        <v>553700</v>
+        <v>551600</v>
       </c>
       <c r="F76" s="3">
+        <v>548000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>548500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>542800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>557700</v>
+      </c>
+      <c r="J76" s="3">
         <v>554200</v>
       </c>
-      <c r="G76" s="3">
-        <v>548400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>563500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>559900</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>550700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>520800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>505700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>526900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>557700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>554100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>544800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>522700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>483500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>442300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>354800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>328500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5361,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F81" s="3">
         <v>2600</v>
       </c>
-      <c r="F81" s="3">
-        <v>6200</v>
-      </c>
       <c r="G81" s="3">
-        <v>-15000</v>
+        <v>6100</v>
       </c>
       <c r="H81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="P81" s="3">
         <v>9400</v>
       </c>
-      <c r="J81" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>32900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>28200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>26100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6134,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6856,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7178,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>68100</v>
+        <v>31400</v>
       </c>
       <c r="E8" s="3">
-        <v>66600</v>
+        <v>66000</v>
       </c>
       <c r="F8" s="3">
-        <v>64800</v>
+        <v>64500</v>
       </c>
       <c r="G8" s="3">
-        <v>64200</v>
+        <v>62800</v>
       </c>
       <c r="H8" s="3">
+        <v>62200</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>67100</v>
-      </c>
       <c r="J8" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K8" s="3">
         <v>67900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>68500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>72500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>84300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>116900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>129500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>148400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>156200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>154400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>153100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>159700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>139300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>115800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39900</v>
+        <v>36900</v>
       </c>
       <c r="E9" s="3">
-        <v>39900</v>
+        <v>38700</v>
       </c>
       <c r="F9" s="3">
-        <v>37500</v>
+        <v>38600</v>
       </c>
       <c r="G9" s="3">
-        <v>39900</v>
+        <v>36400</v>
       </c>
       <c r="H9" s="3">
-        <v>46100</v>
+        <v>38600</v>
       </c>
       <c r="I9" s="3">
-        <v>45600</v>
+        <v>44700</v>
       </c>
       <c r="J9" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K9" s="3">
         <v>42900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>46600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>54200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>62500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>63700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>68300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>73000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>69500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>67000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>69700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>60000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>45900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28200</v>
+        <v>-5500</v>
       </c>
       <c r="E10" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="F10" s="3">
-        <v>27300</v>
+        <v>25900</v>
       </c>
       <c r="G10" s="3">
-        <v>24300</v>
+        <v>26500</v>
       </c>
       <c r="H10" s="3">
-        <v>-45800</v>
+        <v>23600</v>
       </c>
       <c r="I10" s="3">
-        <v>21500</v>
+        <v>-44300</v>
       </c>
       <c r="J10" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K10" s="3">
         <v>25000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>31100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>67000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>74800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>80100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>83200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>85000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>86000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>90100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>79300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>69900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>63800</v>
+        <v>11100</v>
       </c>
       <c r="E17" s="3">
-        <v>57700</v>
+        <v>61900</v>
       </c>
       <c r="F17" s="3">
-        <v>61800</v>
+        <v>55900</v>
       </c>
       <c r="G17" s="3">
-        <v>55900</v>
+        <v>59900</v>
       </c>
       <c r="H17" s="3">
-        <v>17500</v>
+        <v>54100</v>
       </c>
       <c r="I17" s="3">
-        <v>63400</v>
+        <v>17000</v>
       </c>
       <c r="J17" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K17" s="3">
         <v>57400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>97300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>79400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>80000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>95700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>110900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>111700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>111800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>109800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>113500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>121900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>109900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>87900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4300</v>
+        <v>20300</v>
       </c>
       <c r="E18" s="3">
-        <v>8900</v>
+        <v>4100</v>
       </c>
       <c r="F18" s="3">
-        <v>3000</v>
+        <v>8600</v>
       </c>
       <c r="G18" s="3">
-        <v>8300</v>
+        <v>2900</v>
       </c>
       <c r="H18" s="3">
-        <v>-17100</v>
+        <v>8100</v>
       </c>
       <c r="I18" s="3">
-        <v>3600</v>
+        <v>-16600</v>
       </c>
       <c r="J18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>10500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>36800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>36800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>44400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>44700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>39600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>37800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>29400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>27900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,13 +1582,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-11100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1679,32 +1716,35 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>38700</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>45600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>39400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>28600</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4300</v>
+        <v>9200</v>
       </c>
       <c r="E23" s="3">
-        <v>8900</v>
+        <v>4100</v>
       </c>
       <c r="F23" s="3">
-        <v>3000</v>
+        <v>8600</v>
       </c>
       <c r="G23" s="3">
-        <v>8300</v>
+        <v>2900</v>
       </c>
       <c r="H23" s="3">
-        <v>-17100</v>
+        <v>8100</v>
       </c>
       <c r="I23" s="3">
-        <v>3600</v>
+        <v>-16600</v>
       </c>
       <c r="J23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K23" s="3">
         <v>10500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>36800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>33800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>36800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>39600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>37800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>29400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>27900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>2400</v>
-      </c>
       <c r="F24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
-        <v>2200</v>
-      </c>
       <c r="H24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3400</v>
       </c>
       <c r="M24" s="3">
         <v>3400</v>
       </c>
       <c r="N24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>4000</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>6500</v>
+        <v>3900</v>
       </c>
       <c r="F26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="G26" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>9400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>27300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>34600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>26100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>19400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>4000</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>6500</v>
+        <v>3900</v>
       </c>
       <c r="F27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="G27" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>9400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>34600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>28200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>26100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,13 +2540,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>4000</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>6500</v>
+        <v>3900</v>
       </c>
       <c r="F33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="G33" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>9400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>32900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>34600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>28200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>26100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>4000</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>6500</v>
+        <v>3900</v>
       </c>
       <c r="F35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="G35" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>9400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>32900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>34600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>28200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>26100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,71 +3007,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>251900</v>
+        <v>300800</v>
       </c>
       <c r="E41" s="3">
-        <v>195200</v>
+        <v>244200</v>
       </c>
       <c r="F41" s="3">
-        <v>205100</v>
+        <v>189200</v>
       </c>
       <c r="G41" s="3">
-        <v>241400</v>
+        <v>198800</v>
       </c>
       <c r="H41" s="3">
-        <v>317200</v>
+        <v>233900</v>
       </c>
       <c r="I41" s="3">
-        <v>279200</v>
+        <v>307400</v>
       </c>
       <c r="J41" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K41" s="3">
         <v>231300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>319400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>273000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>234800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>285000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>262100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>262600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>236700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>296100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>298200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>459200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>239600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>353300</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,71 +3485,74 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1592200</v>
+        <v>1457000</v>
       </c>
       <c r="E47" s="3">
-        <v>1512700</v>
+        <v>1543300</v>
       </c>
       <c r="F47" s="3">
-        <v>1433200</v>
+        <v>1466200</v>
       </c>
       <c r="G47" s="3">
-        <v>1466700</v>
+        <v>1389200</v>
       </c>
       <c r="H47" s="3">
-        <v>1480600</v>
+        <v>1421600</v>
       </c>
       <c r="I47" s="3">
-        <v>1715600</v>
+        <v>1435100</v>
       </c>
       <c r="J47" s="3">
+        <v>1662800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1704000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1472900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1331000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1325400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1416600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1627500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1700800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1754300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2077200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2235500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2303200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2469600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2500700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3460,71 +3565,74 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E48" s="3">
-        <v>2600</v>
+        <v>4400</v>
       </c>
       <c r="F48" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="G48" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
-        <v>2800</v>
-      </c>
       <c r="J48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3400</v>
       </c>
       <c r="L48" s="3">
         <v>3400</v>
       </c>
       <c r="M48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N48" s="3">
         <v>3900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3552,10 +3663,10 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -3564,19 +3675,19 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
+        <v>600</v>
+      </c>
+      <c r="L49" s="3">
         <v>700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
       </c>
       <c r="O49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>600</v>
@@ -3594,13 +3705,13 @@
         <v>600</v>
       </c>
       <c r="U49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V49" s="3">
         <v>500</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
+      <c r="W49" s="3">
+        <v>500</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,71 +3885,74 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10900</v>
+        <v>13500</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>10600</v>
       </c>
       <c r="F52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
-        <v>500</v>
-      </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>900</v>
+      </c>
+      <c r="K52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O52" s="3">
         <v>3000</v>
       </c>
-      <c r="I52" s="3">
-        <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>13400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>12100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>10600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>40500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>23900</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,71 +4045,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2058600</v>
+        <v>1988700</v>
       </c>
       <c r="E54" s="3">
-        <v>1983200</v>
+        <v>1995300</v>
       </c>
       <c r="F54" s="3">
-        <v>1865900</v>
+        <v>1922200</v>
       </c>
       <c r="G54" s="3">
-        <v>1923500</v>
+        <v>1808600</v>
       </c>
       <c r="H54" s="3">
-        <v>2045000</v>
+        <v>1864400</v>
       </c>
       <c r="I54" s="3">
-        <v>2122300</v>
+        <v>1982100</v>
       </c>
       <c r="J54" s="3">
+        <v>2057100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2049700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1902000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1702900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1657700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1776800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1946900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2005800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2052200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2439100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2603200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2810900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2756600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2901400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,65 +4265,68 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16000</v>
+        <v>43900</v>
       </c>
       <c r="E58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>6400</v>
+        <v>2500</v>
       </c>
       <c r="I58" s="3">
-        <v>42700</v>
+        <v>6200</v>
       </c>
       <c r="J58" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K58" s="3">
         <v>47900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>51000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>70800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>105600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>143200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>85000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>134100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>214700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>340900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>496400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>612000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
@@ -4211,71 +4345,74 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35100</v>
+        <v>34900</v>
       </c>
       <c r="E59" s="3">
-        <v>29600</v>
+        <v>34000</v>
       </c>
       <c r="F59" s="3">
-        <v>28200</v>
+        <v>28700</v>
       </c>
       <c r="G59" s="3">
-        <v>24900</v>
+        <v>27300</v>
       </c>
       <c r="H59" s="3">
-        <v>27700</v>
+        <v>24100</v>
       </c>
       <c r="I59" s="3">
-        <v>32400</v>
+        <v>26800</v>
       </c>
       <c r="J59" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K59" s="3">
         <v>27600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>124900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>126800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>124100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>92400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>88200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,71 +4505,74 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1098500</v>
+        <v>992400</v>
       </c>
       <c r="E61" s="3">
-        <v>1079500</v>
+        <v>1064700</v>
       </c>
       <c r="F61" s="3">
-        <v>993400</v>
+        <v>1046300</v>
       </c>
       <c r="G61" s="3">
-        <v>1056300</v>
+        <v>962800</v>
       </c>
       <c r="H61" s="3">
-        <v>1143200</v>
+        <v>1023900</v>
       </c>
       <c r="I61" s="3">
-        <v>1186800</v>
+        <v>1108000</v>
       </c>
       <c r="J61" s="3">
+        <v>1150300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1091200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>961200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>786400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>738400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>804400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1007400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1024300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1014700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1334100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1429700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1613600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1710400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1789000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,55 +4585,58 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="E62" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="F62" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>15500</v>
-      </c>
       <c r="H62" s="3">
-        <v>21600</v>
+        <v>15000</v>
       </c>
       <c r="I62" s="3">
-        <v>30000</v>
+        <v>20900</v>
       </c>
       <c r="J62" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K62" s="3">
         <v>52000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>55700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>53200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>55300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>200</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
@@ -4502,11 +4648,11 @@
         <v>200</v>
       </c>
       <c r="V62" s="3">
+        <v>200</v>
+      </c>
+      <c r="W62" s="3">
         <v>100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,71 +4905,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1506200</v>
+        <v>1448000</v>
       </c>
       <c r="E66" s="3">
-        <v>1431500</v>
+        <v>1459900</v>
       </c>
       <c r="F66" s="3">
-        <v>1317900</v>
+        <v>1387500</v>
       </c>
       <c r="G66" s="3">
-        <v>1375000</v>
+        <v>1277400</v>
       </c>
       <c r="H66" s="3">
-        <v>1502200</v>
+        <v>1332700</v>
       </c>
       <c r="I66" s="3">
-        <v>1564600</v>
+        <v>1456000</v>
       </c>
       <c r="J66" s="3">
+        <v>1516500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1495500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1351300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1182100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1152000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1249900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1389200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1451700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1507400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1916400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2119700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2368600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2401800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2572900</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,71 +5335,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>420600</v>
+        <v>414100</v>
       </c>
       <c r="E72" s="3">
-        <v>416700</v>
+        <v>407700</v>
       </c>
       <c r="F72" s="3">
-        <v>410200</v>
+        <v>403900</v>
       </c>
       <c r="G72" s="3">
-        <v>407600</v>
+        <v>397600</v>
       </c>
       <c r="H72" s="3">
-        <v>401500</v>
+        <v>395100</v>
       </c>
       <c r="I72" s="3">
-        <v>416400</v>
+        <v>389100</v>
       </c>
       <c r="J72" s="3">
+        <v>403600</v>
+      </c>
+      <c r="K72" s="3">
         <v>413600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>408600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>384100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>369400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>383700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>406800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>409900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>400500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>378100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>344300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>309000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>271400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>244600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,71 +5655,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>552400</v>
+        <v>554500</v>
       </c>
       <c r="E76" s="3">
-        <v>551600</v>
+        <v>535400</v>
       </c>
       <c r="F76" s="3">
-        <v>548000</v>
+        <v>534700</v>
       </c>
       <c r="G76" s="3">
-        <v>548500</v>
+        <v>531200</v>
       </c>
       <c r="H76" s="3">
-        <v>542800</v>
+        <v>531600</v>
       </c>
       <c r="I76" s="3">
+        <v>526100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>540600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>554200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>550700</v>
+      </c>
+      <c r="M76" s="3">
+        <v>520800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>505700</v>
+      </c>
+      <c r="O76" s="3">
+        <v>526900</v>
+      </c>
+      <c r="P76" s="3">
         <v>557700</v>
       </c>
-      <c r="J76" s="3">
-        <v>554200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>550700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>520800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>505700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>526900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>557700</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>554100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>544800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>522700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>483500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>442300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>354800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>328500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>4000</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>6500</v>
+        <v>3900</v>
       </c>
       <c r="F81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="G81" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>9400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>32900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>34600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>28200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>26100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>CNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31400</v>
+        <v>469200</v>
       </c>
       <c r="E8" s="3">
-        <v>66000</v>
+        <v>493600</v>
       </c>
       <c r="F8" s="3">
-        <v>64500</v>
+        <v>478900</v>
       </c>
       <c r="G8" s="3">
-        <v>62800</v>
+        <v>468500</v>
       </c>
       <c r="H8" s="3">
-        <v>62200</v>
+        <v>456000</v>
       </c>
       <c r="I8" s="3">
-        <v>400</v>
+        <v>451500</v>
       </c>
       <c r="J8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K8" s="3">
         <v>65000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>68500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>72500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>74000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>84300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>92300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>116900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>129500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>148400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>156200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>154400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>153100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>159700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>139300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>115800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36900</v>
+        <v>264300</v>
       </c>
       <c r="E9" s="3">
-        <v>38700</v>
+        <v>267600</v>
       </c>
       <c r="F9" s="3">
-        <v>38600</v>
+        <v>280900</v>
       </c>
       <c r="G9" s="3">
-        <v>36400</v>
+        <v>280400</v>
       </c>
       <c r="H9" s="3">
-        <v>38600</v>
+        <v>263900</v>
       </c>
       <c r="I9" s="3">
-        <v>44700</v>
+        <v>280500</v>
       </c>
       <c r="J9" s="3">
+        <v>324700</v>
+      </c>
+      <c r="K9" s="3">
         <v>44200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>42800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>46600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>54200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>62500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>63700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>68300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>73000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>69500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>67000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>69700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>60000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>45900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>33700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-5500</v>
+        <v>204900</v>
       </c>
       <c r="E10" s="3">
-        <v>27300</v>
+        <v>226000</v>
       </c>
       <c r="F10" s="3">
-        <v>25900</v>
+        <v>198000</v>
       </c>
       <c r="G10" s="3">
-        <v>26500</v>
+        <v>188100</v>
       </c>
       <c r="H10" s="3">
-        <v>23600</v>
+        <v>192100</v>
       </c>
       <c r="I10" s="3">
-        <v>-44300</v>
+        <v>171000</v>
       </c>
       <c r="J10" s="3">
+        <v>-321900</v>
+      </c>
+      <c r="K10" s="3">
         <v>20800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>31100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>31200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>67000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>74800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>80100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>83200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>85000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>86000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>90100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>79300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>69900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>59500</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11100</v>
+        <v>413800</v>
       </c>
       <c r="E17" s="3">
-        <v>61900</v>
+        <v>426700</v>
       </c>
       <c r="F17" s="3">
-        <v>55900</v>
+        <v>448900</v>
       </c>
       <c r="G17" s="3">
-        <v>59900</v>
+        <v>405800</v>
       </c>
       <c r="H17" s="3">
-        <v>54100</v>
+        <v>434600</v>
       </c>
       <c r="I17" s="3">
-        <v>17000</v>
+        <v>393000</v>
       </c>
       <c r="J17" s="3">
+        <v>123100</v>
+      </c>
+      <c r="K17" s="3">
         <v>61500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>57400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>48400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>68000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>97300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>79400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>80000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>95700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>110900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>111700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>111800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>109800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>113500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>121900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>109900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>87900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>68300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20300</v>
+        <v>55400</v>
       </c>
       <c r="E18" s="3">
-        <v>4100</v>
+        <v>66900</v>
       </c>
       <c r="F18" s="3">
-        <v>8600</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="3">
-        <v>2900</v>
+        <v>62700</v>
       </c>
       <c r="H18" s="3">
-        <v>8100</v>
+        <v>21400</v>
       </c>
       <c r="I18" s="3">
-        <v>-16600</v>
+        <v>58500</v>
       </c>
       <c r="J18" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>36800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>36800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>44400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>44700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>39600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>37800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>29400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>27900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1616,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1663,8 +1697,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1719,32 +1756,35 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>38700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>45600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>39400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>28600</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9200</v>
+        <v>55400</v>
       </c>
       <c r="E23" s="3">
-        <v>4100</v>
+        <v>66900</v>
       </c>
       <c r="F23" s="3">
-        <v>8600</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="3">
-        <v>2900</v>
+        <v>62700</v>
       </c>
       <c r="H23" s="3">
-        <v>8100</v>
+        <v>21400</v>
       </c>
       <c r="I23" s="3">
-        <v>-16600</v>
+        <v>58500</v>
       </c>
       <c r="J23" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="K23" s="3">
         <v>3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>36800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>33800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>44400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>44700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>39600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>37800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>29400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>27900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2400</v>
+        <v>11600</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>17600</v>
       </c>
       <c r="F24" s="3">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="G24" s="3">
-        <v>500</v>
+        <v>16700</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>3300</v>
       </c>
       <c r="I24" s="3">
-        <v>-2200</v>
+        <v>15400</v>
       </c>
       <c r="J24" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3400</v>
       </c>
       <c r="N24" s="3">
         <v>3400</v>
       </c>
       <c r="O24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>12400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>43800</v>
       </c>
       <c r="E26" s="3">
-        <v>3900</v>
+        <v>49300</v>
       </c>
       <c r="F26" s="3">
-        <v>6300</v>
+        <v>28100</v>
       </c>
       <c r="G26" s="3">
-        <v>2500</v>
+        <v>46000</v>
       </c>
       <c r="H26" s="3">
-        <v>5900</v>
+        <v>18100</v>
       </c>
       <c r="I26" s="3">
-        <v>-14400</v>
+        <v>43100</v>
       </c>
       <c r="J26" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>25100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>20600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>27300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>34600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>28200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>26100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>19400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>43800</v>
       </c>
       <c r="E27" s="3">
-        <v>3900</v>
+        <v>49300</v>
       </c>
       <c r="F27" s="3">
-        <v>6300</v>
+        <v>28100</v>
       </c>
       <c r="G27" s="3">
-        <v>2500</v>
+        <v>46000</v>
       </c>
       <c r="H27" s="3">
-        <v>5900</v>
+        <v>18100</v>
       </c>
       <c r="I27" s="3">
-        <v>-14400</v>
+        <v>43100</v>
       </c>
       <c r="J27" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>25100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>20600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>27300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>34600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>28200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>26100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>17000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2610,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>43800</v>
       </c>
       <c r="E33" s="3">
-        <v>3900</v>
+        <v>49300</v>
       </c>
       <c r="F33" s="3">
-        <v>6300</v>
+        <v>28100</v>
       </c>
       <c r="G33" s="3">
-        <v>2500</v>
+        <v>46000</v>
       </c>
       <c r="H33" s="3">
-        <v>5900</v>
+        <v>18100</v>
       </c>
       <c r="I33" s="3">
-        <v>-14400</v>
+        <v>43100</v>
       </c>
       <c r="J33" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>25100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>20600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>27300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>32900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>34600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>28200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>26100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>19400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>43800</v>
       </c>
       <c r="E35" s="3">
-        <v>3900</v>
+        <v>49300</v>
       </c>
       <c r="F35" s="3">
-        <v>6300</v>
+        <v>28100</v>
       </c>
       <c r="G35" s="3">
-        <v>2500</v>
+        <v>46000</v>
       </c>
       <c r="H35" s="3">
-        <v>5900</v>
+        <v>18100</v>
       </c>
       <c r="I35" s="3">
-        <v>-14400</v>
+        <v>43100</v>
       </c>
       <c r="J35" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>25100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>20600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>27300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>32900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>34600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>28200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>26100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>19400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3094,75 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300800</v>
+        <v>1880800</v>
       </c>
       <c r="E41" s="3">
-        <v>244200</v>
+        <v>2183300</v>
       </c>
       <c r="F41" s="3">
-        <v>189200</v>
+        <v>1772200</v>
       </c>
       <c r="G41" s="3">
-        <v>198800</v>
+        <v>1373200</v>
       </c>
       <c r="H41" s="3">
-        <v>233900</v>
+        <v>1443200</v>
       </c>
       <c r="I41" s="3">
-        <v>307400</v>
+        <v>1698000</v>
       </c>
       <c r="J41" s="3">
+        <v>2231400</v>
+      </c>
+      <c r="K41" s="3">
         <v>270600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>231300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>319400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>273000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>234800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>285000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>262100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>262600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>236700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>296100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>298200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>459200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>239600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>353300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,74 +3590,77 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1457000</v>
+        <v>10724100</v>
       </c>
       <c r="E47" s="3">
-        <v>1543300</v>
+        <v>10574700</v>
       </c>
       <c r="F47" s="3">
-        <v>1466200</v>
+        <v>11201000</v>
       </c>
       <c r="G47" s="3">
-        <v>1389200</v>
+        <v>10641400</v>
       </c>
       <c r="H47" s="3">
-        <v>1421600</v>
+        <v>10082400</v>
       </c>
       <c r="I47" s="3">
-        <v>1435100</v>
+        <v>10318200</v>
       </c>
       <c r="J47" s="3">
+        <v>10415800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1662800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1704000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1472900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1331000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1325400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1416600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1627500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1700800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1754300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2077200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2235500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2303200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2469600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2500700</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3568,74 +3673,77 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4400</v>
+        <v>35000</v>
       </c>
       <c r="E48" s="3">
-        <v>4400</v>
+        <v>32100</v>
       </c>
       <c r="F48" s="3">
-        <v>2500</v>
+        <v>32100</v>
       </c>
       <c r="G48" s="3">
-        <v>3000</v>
+        <v>18400</v>
       </c>
       <c r="H48" s="3">
-        <v>2400</v>
+        <v>21800</v>
       </c>
       <c r="I48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3400</v>
       </c>
       <c r="M48" s="3">
         <v>3400</v>
       </c>
       <c r="N48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O48" s="3">
         <v>3900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3648,49 +3756,52 @@
       <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>3200</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>3400</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>3600</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>3900</v>
       </c>
       <c r="J49" s="3">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="K49" s="3">
         <v>600</v>
       </c>
       <c r="L49" s="3">
+        <v>600</v>
+      </c>
+      <c r="M49" s="3">
         <v>700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>600</v>
@@ -3708,13 +3819,13 @@
         <v>600</v>
       </c>
       <c r="V49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W49" s="3">
         <v>500</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="X49" s="3">
+        <v>500</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,74 +4005,77 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13500</v>
+        <v>108800</v>
       </c>
       <c r="E52" s="3">
+        <v>98000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>76900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K52" s="3">
+        <v>900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N52" s="3">
         <v>10600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
-        <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>12100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>10600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>40500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>43000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>23900</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4171,77 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1988700</v>
+        <v>14474700</v>
       </c>
       <c r="E54" s="3">
-        <v>1995300</v>
+        <v>14433600</v>
       </c>
       <c r="F54" s="3">
-        <v>1922200</v>
+        <v>14481900</v>
       </c>
       <c r="G54" s="3">
-        <v>1808600</v>
+        <v>13951200</v>
       </c>
       <c r="H54" s="3">
-        <v>1864400</v>
+        <v>13126400</v>
       </c>
       <c r="I54" s="3">
-        <v>1982100</v>
+        <v>13531400</v>
       </c>
       <c r="J54" s="3">
+        <v>14386200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2057100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2049700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1902000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1702900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1657700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1776800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1946900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2005800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2052200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2439100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2603200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2810900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2756600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2901400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,68 +4399,71 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43900</v>
+        <v>472100</v>
       </c>
       <c r="E58" s="3">
-        <v>15500</v>
+        <v>318900</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>112600</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H58" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>6200</v>
+        <v>18400</v>
       </c>
       <c r="J58" s="3">
+        <v>45300</v>
+      </c>
+      <c r="K58" s="3">
         <v>41400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>51000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>70800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>105600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>143200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>85000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>134100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>214700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>340900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>496400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>612000</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -4348,74 +4482,77 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34900</v>
+        <v>266500</v>
       </c>
       <c r="E59" s="3">
-        <v>34000</v>
+        <v>253300</v>
       </c>
       <c r="F59" s="3">
-        <v>28700</v>
+        <v>247100</v>
       </c>
       <c r="G59" s="3">
+        <v>208100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>198100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>175100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K59" s="3">
+        <v>31400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>27600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>28900</v>
+      </c>
+      <c r="N59" s="3">
+        <v>28400</v>
+      </c>
+      <c r="O59" s="3">
+        <v>51800</v>
+      </c>
+      <c r="P59" s="3">
+        <v>45300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>27300</v>
       </c>
-      <c r="H59" s="3">
-        <v>24100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>26800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>31400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>27600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>28900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>28400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>51800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>45300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>27300</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>124900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>126800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>124100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>92400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>88200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,74 +4648,77 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>992400</v>
+        <v>6806200</v>
       </c>
       <c r="E61" s="3">
-        <v>1064700</v>
+        <v>7203000</v>
       </c>
       <c r="F61" s="3">
-        <v>1046300</v>
+        <v>7727600</v>
       </c>
       <c r="G61" s="3">
-        <v>962800</v>
+        <v>7594300</v>
       </c>
       <c r="H61" s="3">
-        <v>1023900</v>
+        <v>6988100</v>
       </c>
       <c r="I61" s="3">
-        <v>1108000</v>
+        <v>7431200</v>
       </c>
       <c r="J61" s="3">
+        <v>8041900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1150300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1091200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>961200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>786400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>738400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>804400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1007400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1024300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1014700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1334100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1429700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1613600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1710400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1789000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4588,58 +4731,61 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10100</v>
+        <v>71800</v>
       </c>
       <c r="E62" s="3">
-        <v>10200</v>
+        <v>73500</v>
       </c>
       <c r="F62" s="3">
-        <v>9400</v>
+        <v>73800</v>
       </c>
       <c r="G62" s="3">
-        <v>9700</v>
+        <v>68500</v>
       </c>
       <c r="H62" s="3">
-        <v>15000</v>
+        <v>70400</v>
       </c>
       <c r="I62" s="3">
-        <v>20900</v>
+        <v>108800</v>
       </c>
       <c r="J62" s="3">
+        <v>151800</v>
+      </c>
+      <c r="K62" s="3">
         <v>29100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>52000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>55700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>55200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>53200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>55300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>200</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -4651,11 +4797,11 @@
         <v>200</v>
       </c>
       <c r="W62" s="3">
+        <v>200</v>
+      </c>
+      <c r="X62" s="3">
         <v>100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5063,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1448000</v>
+        <v>10507600</v>
       </c>
       <c r="E66" s="3">
-        <v>1459900</v>
+        <v>10509900</v>
       </c>
       <c r="F66" s="3">
-        <v>1387500</v>
+        <v>10595900</v>
       </c>
       <c r="G66" s="3">
-        <v>1277400</v>
+        <v>10070700</v>
       </c>
       <c r="H66" s="3">
-        <v>1332700</v>
+        <v>9271100</v>
       </c>
       <c r="I66" s="3">
-        <v>1456000</v>
+        <v>9673000</v>
       </c>
       <c r="J66" s="3">
+        <v>10567900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1516500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1495500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1351300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1182100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1152000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1249900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1389200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1451700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1507400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1916400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2119700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2368600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2401800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2572900</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,74 +5509,77 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>414100</v>
+        <v>3042900</v>
       </c>
       <c r="E72" s="3">
-        <v>407700</v>
+        <v>3005600</v>
       </c>
       <c r="F72" s="3">
-        <v>403900</v>
+        <v>2958700</v>
       </c>
       <c r="G72" s="3">
-        <v>397600</v>
+        <v>2931600</v>
       </c>
       <c r="H72" s="3">
-        <v>395100</v>
+        <v>2885500</v>
       </c>
       <c r="I72" s="3">
-        <v>389100</v>
+        <v>2867400</v>
       </c>
       <c r="J72" s="3">
+        <v>2824300</v>
+      </c>
+      <c r="K72" s="3">
         <v>403600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>413600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>408600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>384100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>369400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>383700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>406800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>409900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>400500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>378100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>344300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>309000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>271400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>244600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +5841,77 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>554500</v>
+        <v>3967100</v>
       </c>
       <c r="E76" s="3">
-        <v>535400</v>
+        <v>3923700</v>
       </c>
       <c r="F76" s="3">
-        <v>534700</v>
+        <v>3886000</v>
       </c>
       <c r="G76" s="3">
-        <v>531200</v>
+        <v>3880500</v>
       </c>
       <c r="H76" s="3">
-        <v>531600</v>
+        <v>3855300</v>
       </c>
       <c r="I76" s="3">
-        <v>526100</v>
+        <v>3858500</v>
       </c>
       <c r="J76" s="3">
+        <v>3818300</v>
+      </c>
+      <c r="K76" s="3">
         <v>540600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>554200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>550700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>520800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>505700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>526900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>557700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>554100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>544800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>522700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>483500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>442300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>354800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>328500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>43800</v>
       </c>
       <c r="E81" s="3">
-        <v>3900</v>
+        <v>49300</v>
       </c>
       <c r="F81" s="3">
-        <v>6300</v>
+        <v>28100</v>
       </c>
       <c r="G81" s="3">
-        <v>2500</v>
+        <v>46000</v>
       </c>
       <c r="H81" s="3">
-        <v>5900</v>
+        <v>18100</v>
       </c>
       <c r="I81" s="3">
-        <v>-14400</v>
+        <v>43100</v>
       </c>
       <c r="J81" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>25100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>20600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>27300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>32900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>34600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>28200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>26100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>19400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>16600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>
